--- a/Standard_curve/LuxPro.xlsx
+++ b/Standard_curve/LuxPro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxzxc\Desktop\Python\Standard_curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA35DCAE-BC67-461F-A174-F775BF58AE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC7B14-A095-4647-96DF-AFC521326AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lysed (plain_PBS)" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Time\Cell number</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,121 +342,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AK14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1">
+        <v>9.765625</v>
+      </c>
+      <c r="C1">
+        <v>9.765625</v>
+      </c>
+      <c r="D1">
+        <v>9.765625</v>
+      </c>
+      <c r="E1">
+        <v>19.53125</v>
+      </c>
+      <c r="F1">
+        <v>19.53125</v>
+      </c>
+      <c r="G1">
+        <v>19.53125</v>
+      </c>
+      <c r="H1">
+        <v>39.0625</v>
+      </c>
+      <c r="I1">
+        <v>39.0625</v>
+      </c>
+      <c r="J1">
+        <v>39.0625</v>
+      </c>
+      <c r="K1">
+        <v>78.125</v>
+      </c>
+      <c r="L1">
+        <v>78.125</v>
+      </c>
+      <c r="M1">
+        <v>78.125</v>
+      </c>
+      <c r="N1">
+        <v>156.25</v>
+      </c>
+      <c r="O1">
+        <v>156.25</v>
+      </c>
+      <c r="P1">
+        <v>156.25</v>
+      </c>
+      <c r="Q1">
+        <v>312.5</v>
+      </c>
+      <c r="R1">
+        <v>312.5</v>
+      </c>
+      <c r="S1">
+        <v>312.5</v>
+      </c>
+      <c r="T1">
+        <v>625</v>
+      </c>
+      <c r="U1">
+        <v>625</v>
+      </c>
+      <c r="V1">
+        <v>625</v>
+      </c>
+      <c r="W1">
+        <v>1250</v>
+      </c>
+      <c r="X1">
+        <v>1250</v>
+      </c>
+      <c r="Y1">
+        <v>1250</v>
+      </c>
+      <c r="Z1">
+        <v>2500</v>
+      </c>
+      <c r="AA1">
+        <v>2500</v>
+      </c>
+      <c r="AB1">
+        <v>2500</v>
+      </c>
+      <c r="AC1">
+        <v>5000</v>
+      </c>
+      <c r="AD1">
+        <v>5000</v>
+      </c>
+      <c r="AE1">
+        <v>5000</v>
+      </c>
+      <c r="AF1">
+        <v>10000</v>
+      </c>
+      <c r="AG1">
+        <v>10000</v>
+      </c>
+      <c r="AH1">
+        <v>10000</v>
+      </c>
+      <c r="AI1">
         <v>20000</v>
       </c>
-      <c r="C1">
+      <c r="AJ1">
         <v>20000</v>
       </c>
-      <c r="D1">
+      <c r="AK1">
         <v>20000</v>
-      </c>
-      <c r="E1">
-        <v>10000</v>
-      </c>
-      <c r="F1">
-        <v>10000</v>
-      </c>
-      <c r="G1">
-        <v>10000</v>
-      </c>
-      <c r="H1">
-        <v>5000</v>
-      </c>
-      <c r="I1">
-        <v>5000</v>
-      </c>
-      <c r="J1">
-        <v>5000</v>
-      </c>
-      <c r="K1">
-        <v>2500</v>
-      </c>
-      <c r="L1">
-        <v>2500</v>
-      </c>
-      <c r="M1">
-        <v>2500</v>
-      </c>
-      <c r="N1">
-        <v>1250</v>
-      </c>
-      <c r="O1">
-        <v>1250</v>
-      </c>
-      <c r="P1">
-        <v>1250</v>
-      </c>
-      <c r="Q1">
-        <v>625</v>
-      </c>
-      <c r="R1">
-        <v>625</v>
-      </c>
-      <c r="S1">
-        <v>625</v>
-      </c>
-      <c r="T1">
-        <v>312.5</v>
-      </c>
-      <c r="U1">
-        <v>312.5</v>
-      </c>
-      <c r="V1">
-        <v>312.5</v>
-      </c>
-      <c r="W1">
-        <v>156.25</v>
-      </c>
-      <c r="X1">
-        <v>156.25</v>
-      </c>
-      <c r="Y1">
-        <v>156.25</v>
-      </c>
-      <c r="Z1">
-        <v>78.125</v>
-      </c>
-      <c r="AA1">
-        <v>78.125</v>
-      </c>
-      <c r="AB1">
-        <v>78.125</v>
-      </c>
-      <c r="AC1">
-        <v>39.0625</v>
-      </c>
-      <c r="AD1">
-        <v>39.0625</v>
-      </c>
-      <c r="AE1">
-        <v>39.0625</v>
-      </c>
-      <c r="AF1">
-        <v>19.53125</v>
-      </c>
-      <c r="AG1">
-        <v>19.53125</v>
-      </c>
-      <c r="AH1">
-        <v>19.53125</v>
-      </c>
-      <c r="AI1">
-        <v>9.765625</v>
-      </c>
-      <c r="AJ1">
-        <v>9.765625</v>
-      </c>
-      <c r="AK1">
-        <v>9.765625</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.45">
@@ -472,112 +463,112 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>138849</v>
+        <v>2406</v>
       </c>
       <c r="C2">
-        <v>171453</v>
+        <v>2200</v>
       </c>
       <c r="D2">
-        <v>147734</v>
+        <v>2458</v>
       </c>
       <c r="E2">
-        <v>124049</v>
+        <v>2935</v>
       </c>
       <c r="F2">
-        <v>117465</v>
+        <v>2983</v>
       </c>
       <c r="G2">
-        <v>96888</v>
+        <v>3286</v>
       </c>
       <c r="H2">
-        <v>67885</v>
+        <v>3301</v>
       </c>
       <c r="I2">
-        <v>83473</v>
+        <v>3855</v>
       </c>
       <c r="J2">
-        <v>65816</v>
+        <v>3881</v>
       </c>
       <c r="K2">
-        <v>53961</v>
+        <v>4748</v>
       </c>
       <c r="L2">
-        <v>38061</v>
+        <v>4575</v>
       </c>
       <c r="M2">
-        <v>41054</v>
+        <v>6322</v>
       </c>
       <c r="N2">
-        <v>29753</v>
+        <v>5278</v>
       </c>
       <c r="O2">
-        <v>18656</v>
+        <v>6296</v>
       </c>
       <c r="P2">
-        <v>25633</v>
+        <v>8874</v>
       </c>
       <c r="Q2">
-        <v>18456</v>
+        <v>10023</v>
       </c>
       <c r="R2">
-        <v>19202</v>
+        <v>11436</v>
       </c>
       <c r="S2">
-        <v>12349</v>
+        <v>18113</v>
       </c>
       <c r="T2">
-        <v>9317</v>
+        <v>30976</v>
       </c>
       <c r="U2">
-        <v>10007</v>
+        <v>26802</v>
       </c>
       <c r="V2">
-        <v>8894</v>
+        <v>42045</v>
       </c>
       <c r="W2">
-        <v>10784</v>
+        <v>78081</v>
       </c>
       <c r="X2">
-        <v>9284</v>
+        <v>74181</v>
       </c>
       <c r="Y2">
-        <v>7340</v>
+        <v>79610</v>
       </c>
       <c r="Z2">
-        <v>4214</v>
+        <v>123963</v>
       </c>
       <c r="AA2">
-        <v>4883</v>
+        <v>156940</v>
       </c>
       <c r="AB2">
-        <v>4629</v>
+        <v>179119</v>
       </c>
       <c r="AC2">
-        <v>2044</v>
+        <v>218786</v>
       </c>
       <c r="AD2">
-        <v>2027</v>
+        <v>258869</v>
       </c>
       <c r="AE2">
-        <v>2264</v>
+        <v>311402</v>
       </c>
       <c r="AF2">
-        <v>1782</v>
+        <v>315055</v>
       </c>
       <c r="AG2">
-        <v>1850</v>
+        <v>337449</v>
       </c>
       <c r="AH2">
-        <v>1880</v>
+        <v>397760</v>
       </c>
       <c r="AI2">
-        <v>1369</v>
+        <v>414499</v>
       </c>
       <c r="AJ2">
-        <v>1293</v>
+        <v>446856</v>
       </c>
       <c r="AK2">
-        <v>1480</v>
+        <v>449224</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -585,112 +576,112 @@
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>122207</v>
+        <v>1730</v>
       </c>
       <c r="C3">
-        <v>150776</v>
+        <v>1787</v>
       </c>
       <c r="D3">
-        <v>132234</v>
+        <v>1825</v>
       </c>
       <c r="E3">
-        <v>112494</v>
+        <v>2068</v>
       </c>
       <c r="F3">
-        <v>106025</v>
+        <v>2317</v>
       </c>
       <c r="G3">
-        <v>87672</v>
+        <v>2408</v>
       </c>
       <c r="H3">
-        <v>61943</v>
+        <v>2649</v>
       </c>
       <c r="I3">
-        <v>75375</v>
+        <v>2875</v>
       </c>
       <c r="J3">
-        <v>61530</v>
+        <v>2935</v>
       </c>
       <c r="K3">
-        <v>50442</v>
+        <v>3318</v>
       </c>
       <c r="L3">
-        <v>33801</v>
+        <v>3535</v>
       </c>
       <c r="M3">
-        <v>38285</v>
+        <v>4796</v>
       </c>
       <c r="N3">
-        <v>27077</v>
+        <v>4063</v>
       </c>
       <c r="O3">
-        <v>16869</v>
+        <v>5161</v>
       </c>
       <c r="P3">
-        <v>23406</v>
+        <v>8017</v>
       </c>
       <c r="Q3">
-        <v>16915</v>
+        <v>7921</v>
       </c>
       <c r="R3">
-        <v>17843</v>
+        <v>9805</v>
       </c>
       <c r="S3">
-        <v>11228</v>
+        <v>16137</v>
       </c>
       <c r="T3">
-        <v>7705</v>
+        <v>26706</v>
       </c>
       <c r="U3">
-        <v>8753</v>
+        <v>22743</v>
       </c>
       <c r="V3">
-        <v>8035</v>
+        <v>38190</v>
       </c>
       <c r="W3">
-        <v>9340</v>
+        <v>67631</v>
       </c>
       <c r="X3">
-        <v>8051</v>
+        <v>65945</v>
       </c>
       <c r="Y3">
-        <v>5639</v>
+        <v>72826</v>
       </c>
       <c r="Z3">
-        <v>3801</v>
+        <v>107777</v>
       </c>
       <c r="AA3">
-        <v>4146</v>
+        <v>140860</v>
       </c>
       <c r="AB3">
-        <v>4263</v>
+        <v>157224</v>
       </c>
       <c r="AC3">
-        <v>1960</v>
+        <v>196963</v>
       </c>
       <c r="AD3">
-        <v>1959</v>
+        <v>227248</v>
       </c>
       <c r="AE3">
-        <v>2016</v>
+        <v>281878</v>
       </c>
       <c r="AF3">
-        <v>1452</v>
+        <v>293458</v>
       </c>
       <c r="AG3">
-        <v>1449</v>
+        <v>303000</v>
       </c>
       <c r="AH3">
-        <v>1744</v>
+        <v>374796</v>
       </c>
       <c r="AI3">
-        <v>1160</v>
+        <v>383617</v>
       </c>
       <c r="AJ3">
-        <v>1164</v>
+        <v>408715</v>
       </c>
       <c r="AK3">
-        <v>1340</v>
+        <v>426795</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -698,112 +689,112 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>118271</v>
+        <v>1578</v>
       </c>
       <c r="C4">
-        <v>134840</v>
+        <v>1773</v>
       </c>
       <c r="D4">
-        <v>125233</v>
+        <v>1781</v>
       </c>
       <c r="E4">
-        <v>99802</v>
+        <v>2021</v>
       </c>
       <c r="F4">
-        <v>100943</v>
+        <v>2234</v>
       </c>
       <c r="G4">
-        <v>82308</v>
+        <v>2290</v>
       </c>
       <c r="H4">
-        <v>61754</v>
+        <v>1967</v>
       </c>
       <c r="I4">
-        <v>68807</v>
+        <v>2825</v>
       </c>
       <c r="J4">
-        <v>58823</v>
+        <v>2840</v>
       </c>
       <c r="K4">
-        <v>47852</v>
+        <v>2916</v>
       </c>
       <c r="L4">
-        <v>32181</v>
+        <v>3279</v>
       </c>
       <c r="M4">
-        <v>37454</v>
+        <v>4227</v>
       </c>
       <c r="N4">
-        <v>26089</v>
+        <v>3624</v>
       </c>
       <c r="O4">
-        <v>15595</v>
+        <v>4613</v>
       </c>
       <c r="P4">
-        <v>32353</v>
+        <v>6965</v>
       </c>
       <c r="Q4">
-        <v>16113</v>
+        <v>6918</v>
       </c>
       <c r="R4">
-        <v>16540</v>
+        <v>8918</v>
       </c>
       <c r="S4">
-        <v>11673</v>
+        <v>15171</v>
       </c>
       <c r="T4">
-        <v>7112</v>
+        <v>24614</v>
       </c>
       <c r="U4">
-        <v>8187</v>
+        <v>21283</v>
       </c>
       <c r="V4">
-        <v>7550</v>
+        <v>37410</v>
       </c>
       <c r="W4">
-        <v>8285</v>
+        <v>63053</v>
       </c>
       <c r="X4">
-        <v>7664</v>
+        <v>60665</v>
       </c>
       <c r="Y4">
-        <v>5264</v>
+        <v>69041</v>
       </c>
       <c r="Z4">
-        <v>3959</v>
+        <v>108112</v>
       </c>
       <c r="AA4">
-        <v>4024</v>
+        <v>131119</v>
       </c>
       <c r="AB4">
-        <v>3756</v>
+        <v>153962</v>
       </c>
       <c r="AC4">
-        <v>1536</v>
+        <v>182513</v>
       </c>
       <c r="AD4">
-        <v>2024</v>
+        <v>208745</v>
       </c>
       <c r="AE4">
-        <v>1600</v>
+        <v>265408</v>
       </c>
       <c r="AF4">
-        <v>1417</v>
+        <v>273935</v>
       </c>
       <c r="AG4">
-        <v>1299</v>
+        <v>279752</v>
       </c>
       <c r="AH4">
-        <v>1781</v>
+        <v>355951</v>
       </c>
       <c r="AI4">
-        <v>952</v>
+        <v>369361</v>
       </c>
       <c r="AJ4">
-        <v>917</v>
+        <v>371299</v>
       </c>
       <c r="AK4">
-        <v>1169</v>
+        <v>401366</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -811,112 +802,112 @@
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>115193</v>
+        <v>1270</v>
       </c>
       <c r="C5">
-        <v>129348</v>
+        <v>1477</v>
       </c>
       <c r="D5">
-        <v>115599</v>
+        <v>1594</v>
       </c>
       <c r="E5">
-        <v>93122</v>
+        <v>1751</v>
       </c>
       <c r="F5">
-        <v>95778</v>
+        <v>1800</v>
       </c>
       <c r="G5">
-        <v>78015</v>
+        <v>1978</v>
       </c>
       <c r="H5">
-        <v>58366</v>
+        <v>2052</v>
       </c>
       <c r="I5">
-        <v>64995</v>
+        <v>2311</v>
       </c>
       <c r="J5">
-        <v>57835</v>
+        <v>2668</v>
       </c>
       <c r="K5">
-        <v>44174</v>
+        <v>3065</v>
       </c>
       <c r="L5">
-        <v>36459</v>
+        <v>2819</v>
       </c>
       <c r="M5">
-        <v>37145</v>
+        <v>4212</v>
       </c>
       <c r="N5">
-        <v>24873</v>
+        <v>3261</v>
       </c>
       <c r="O5">
-        <v>19453</v>
+        <v>4253</v>
       </c>
       <c r="P5">
-        <v>29726</v>
+        <v>7266</v>
       </c>
       <c r="Q5">
-        <v>15755</v>
+        <v>7093</v>
       </c>
       <c r="R5">
-        <v>15377</v>
+        <v>8302</v>
       </c>
       <c r="S5">
-        <v>12385</v>
+        <v>14582</v>
       </c>
       <c r="T5">
-        <v>7450</v>
+        <v>23959</v>
       </c>
       <c r="U5">
-        <v>7387</v>
+        <v>19790</v>
       </c>
       <c r="V5">
-        <v>7187</v>
+        <v>35637</v>
       </c>
       <c r="W5">
-        <v>7984</v>
+        <v>60654</v>
       </c>
       <c r="X5">
-        <v>6963</v>
+        <v>58744</v>
       </c>
       <c r="Y5">
-        <v>4681</v>
+        <v>68440</v>
       </c>
       <c r="Z5">
-        <v>3511</v>
+        <v>102509</v>
       </c>
       <c r="AA5">
-        <v>3870</v>
+        <v>122146</v>
       </c>
       <c r="AB5">
-        <v>3482</v>
+        <v>150222</v>
       </c>
       <c r="AC5">
-        <v>1536</v>
+        <v>175325</v>
       </c>
       <c r="AD5">
-        <v>1894</v>
+        <v>195068</v>
       </c>
       <c r="AE5">
-        <v>1463</v>
+        <v>260894</v>
       </c>
       <c r="AF5">
-        <v>1145</v>
+        <v>262314</v>
       </c>
       <c r="AG5">
-        <v>1174</v>
+        <v>275678</v>
       </c>
       <c r="AH5">
-        <v>1508</v>
+        <v>337620</v>
       </c>
       <c r="AI5">
-        <v>800</v>
+        <v>346344</v>
       </c>
       <c r="AJ5">
-        <v>933</v>
+        <v>364266</v>
       </c>
       <c r="AK5">
-        <v>930</v>
+        <v>394393</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
@@ -924,112 +915,112 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>110228</v>
+        <v>1226</v>
       </c>
       <c r="C6">
-        <v>123800</v>
+        <v>1391</v>
       </c>
       <c r="D6">
-        <v>114150</v>
+        <v>1392</v>
       </c>
       <c r="E6">
-        <v>89374</v>
+        <v>1607</v>
       </c>
       <c r="F6">
-        <v>92873</v>
+        <v>1690</v>
       </c>
       <c r="G6">
-        <v>74749</v>
+        <v>1858</v>
       </c>
       <c r="H6">
-        <v>57234</v>
+        <v>1913</v>
       </c>
       <c r="I6">
-        <v>63838</v>
+        <v>2087</v>
       </c>
       <c r="J6">
-        <v>54541</v>
+        <v>2601</v>
       </c>
       <c r="K6">
-        <v>42459</v>
+        <v>2832</v>
       </c>
       <c r="L6">
-        <v>35871</v>
+        <v>2991</v>
       </c>
       <c r="M6">
-        <v>35441</v>
+        <v>4279</v>
       </c>
       <c r="N6">
-        <v>24513</v>
+        <v>3298</v>
       </c>
       <c r="O6">
-        <v>19642</v>
+        <v>4065</v>
       </c>
       <c r="P6">
-        <v>28529</v>
+        <v>6841</v>
       </c>
       <c r="Q6">
-        <v>15412</v>
+        <v>7113</v>
       </c>
       <c r="R6">
-        <v>15017</v>
+        <v>8334</v>
       </c>
       <c r="S6">
-        <v>11247</v>
+        <v>15066</v>
       </c>
       <c r="T6">
-        <v>6897</v>
+        <v>23139</v>
       </c>
       <c r="U6">
-        <v>6970</v>
+        <v>20227</v>
       </c>
       <c r="V6">
-        <v>7278</v>
+        <v>35113</v>
       </c>
       <c r="W6">
-        <v>7650</v>
+        <v>59275</v>
       </c>
       <c r="X6">
-        <v>6467</v>
+        <v>57773</v>
       </c>
       <c r="Y6">
-        <v>4551</v>
+        <v>66693</v>
       </c>
       <c r="Z6">
-        <v>3203</v>
+        <v>98709</v>
       </c>
       <c r="AA6">
-        <v>3474</v>
+        <v>117542</v>
       </c>
       <c r="AB6">
-        <v>2943</v>
+        <v>144410</v>
       </c>
       <c r="AC6">
-        <v>1216</v>
+        <v>171920</v>
       </c>
       <c r="AD6">
-        <v>1741</v>
+        <v>195641</v>
       </c>
       <c r="AE6">
-        <v>1414</v>
+        <v>247074</v>
       </c>
       <c r="AF6">
-        <v>1019</v>
+        <v>250175</v>
       </c>
       <c r="AG6">
-        <v>1131</v>
+        <v>272188</v>
       </c>
       <c r="AH6">
-        <v>1303</v>
+        <v>339744</v>
       </c>
       <c r="AI6">
-        <v>858</v>
+        <v>337811</v>
       </c>
       <c r="AJ6">
-        <v>688</v>
+        <v>348157</v>
       </c>
       <c r="AK6">
-        <v>901</v>
+        <v>395120</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
@@ -1037,112 +1028,112 @@
         <v>12.5</v>
       </c>
       <c r="B7">
-        <v>106089</v>
+        <v>1121</v>
       </c>
       <c r="C7">
-        <v>116373</v>
+        <v>1236</v>
       </c>
       <c r="D7">
-        <v>105064</v>
+        <v>1403</v>
       </c>
       <c r="E7">
-        <v>87084</v>
+        <v>1493</v>
       </c>
       <c r="F7">
-        <v>89997</v>
+        <v>1855</v>
       </c>
       <c r="G7">
-        <v>71626</v>
+        <v>1858</v>
       </c>
       <c r="H7">
-        <v>57172</v>
+        <v>1676</v>
       </c>
       <c r="I7">
-        <v>67336</v>
+        <v>2046</v>
       </c>
       <c r="J7">
-        <v>53980</v>
+        <v>2141</v>
       </c>
       <c r="K7">
-        <v>41423</v>
+        <v>2762</v>
       </c>
       <c r="L7">
-        <v>35268</v>
+        <v>2753</v>
       </c>
       <c r="M7">
-        <v>35839</v>
+        <v>4032</v>
       </c>
       <c r="N7">
-        <v>23698</v>
+        <v>2798</v>
       </c>
       <c r="O7">
-        <v>18247</v>
+        <v>3869</v>
       </c>
       <c r="P7">
-        <v>28011</v>
+        <v>6646</v>
       </c>
       <c r="Q7">
-        <v>15079</v>
+        <v>6188</v>
       </c>
       <c r="R7">
-        <v>14475</v>
+        <v>7343</v>
       </c>
       <c r="S7">
-        <v>11059</v>
+        <v>14309</v>
       </c>
       <c r="T7">
-        <v>6939</v>
+        <v>21877</v>
       </c>
       <c r="U7">
-        <v>6682</v>
+        <v>18423</v>
       </c>
       <c r="V7">
-        <v>6543</v>
+        <v>34152</v>
       </c>
       <c r="W7">
-        <v>7478</v>
+        <v>55044</v>
       </c>
       <c r="X7">
-        <v>6262</v>
+        <v>53495</v>
       </c>
       <c r="Y7">
-        <v>4122</v>
+        <v>61435</v>
       </c>
       <c r="Z7">
-        <v>3088</v>
+        <v>91359</v>
       </c>
       <c r="AA7">
-        <v>3492</v>
+        <v>110494</v>
       </c>
       <c r="AB7">
-        <v>3051</v>
+        <v>133614</v>
       </c>
       <c r="AC7">
-        <v>1232</v>
+        <v>159635</v>
       </c>
       <c r="AD7">
-        <v>1787</v>
+        <v>186033</v>
       </c>
       <c r="AE7">
-        <v>1271</v>
+        <v>229834</v>
       </c>
       <c r="AF7">
-        <v>1026</v>
+        <v>231717</v>
       </c>
       <c r="AG7">
-        <v>1124</v>
+        <v>249343</v>
       </c>
       <c r="AH7">
-        <v>1294</v>
+        <v>311282</v>
       </c>
       <c r="AI7">
-        <v>698</v>
+        <v>308163</v>
       </c>
       <c r="AJ7">
-        <v>851</v>
+        <v>321149</v>
       </c>
       <c r="AK7">
-        <v>594</v>
+        <v>359913</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.45">
@@ -1150,112 +1141,112 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>100437</v>
+        <v>1091</v>
       </c>
       <c r="C8">
-        <v>114908</v>
+        <v>1164</v>
       </c>
       <c r="D8">
-        <v>108906</v>
+        <v>1288</v>
       </c>
       <c r="E8">
-        <v>84673</v>
+        <v>1370</v>
       </c>
       <c r="F8">
-        <v>88682</v>
+        <v>1677</v>
       </c>
       <c r="G8">
-        <v>70968</v>
+        <v>1572</v>
       </c>
       <c r="H8">
-        <v>57899</v>
+        <v>1673</v>
       </c>
       <c r="I8">
-        <v>67301</v>
+        <v>1935</v>
       </c>
       <c r="J8">
-        <v>51794</v>
+        <v>2022</v>
       </c>
       <c r="K8">
-        <v>40544</v>
+        <v>2392</v>
       </c>
       <c r="L8">
-        <v>32417</v>
+        <v>2750</v>
       </c>
       <c r="M8">
-        <v>35933</v>
+        <v>4049</v>
       </c>
       <c r="N8">
-        <v>23834</v>
+        <v>2761</v>
       </c>
       <c r="O8">
-        <v>17766</v>
+        <v>3667</v>
       </c>
       <c r="P8">
-        <v>28303</v>
+        <v>6528</v>
       </c>
       <c r="Q8">
-        <v>14528</v>
+        <v>5937</v>
       </c>
       <c r="R8">
-        <v>13664</v>
+        <v>7830</v>
       </c>
       <c r="S8">
-        <v>10708</v>
+        <v>13900</v>
       </c>
       <c r="T8">
-        <v>6245</v>
+        <v>20195</v>
       </c>
       <c r="U8">
-        <v>6301</v>
+        <v>18568</v>
       </c>
       <c r="V8">
-        <v>6292</v>
+        <v>34427</v>
       </c>
       <c r="W8">
-        <v>7083</v>
+        <v>52194</v>
       </c>
       <c r="X8">
-        <v>5552</v>
+        <v>52067</v>
       </c>
       <c r="Y8">
-        <v>3741</v>
+        <v>60895</v>
       </c>
       <c r="Z8">
-        <v>2982</v>
+        <v>89469</v>
       </c>
       <c r="AA8">
-        <v>3116</v>
+        <v>110220</v>
       </c>
       <c r="AB8">
-        <v>2817</v>
+        <v>135869</v>
       </c>
       <c r="AC8">
-        <v>1158</v>
+        <v>148704</v>
       </c>
       <c r="AD8">
-        <v>1764</v>
+        <v>171603</v>
       </c>
       <c r="AE8">
-        <v>1186</v>
+        <v>223455</v>
       </c>
       <c r="AF8">
-        <v>771</v>
+        <v>229512</v>
       </c>
       <c r="AG8">
-        <v>1054</v>
+        <v>239528</v>
       </c>
       <c r="AH8">
-        <v>1120</v>
+        <v>300514</v>
       </c>
       <c r="AI8">
-        <v>609</v>
+        <v>298365</v>
       </c>
       <c r="AJ8">
-        <v>663</v>
+        <v>327456</v>
       </c>
       <c r="AK8">
-        <v>872</v>
+        <v>346605</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.45">
@@ -1263,112 +1254,112 @@
         <v>17.5</v>
       </c>
       <c r="B9">
-        <v>101646</v>
+        <v>1104</v>
       </c>
       <c r="C9">
-        <v>120919</v>
+        <v>1176</v>
       </c>
       <c r="D9">
-        <v>106164</v>
+        <v>1141</v>
       </c>
       <c r="E9">
-        <v>81342</v>
+        <v>1416</v>
       </c>
       <c r="F9">
-        <v>87582</v>
+        <v>1469</v>
       </c>
       <c r="G9">
-        <v>69099</v>
+        <v>1693</v>
       </c>
       <c r="H9">
-        <v>57233</v>
+        <v>1623</v>
       </c>
       <c r="I9">
-        <v>66107</v>
+        <v>1927</v>
       </c>
       <c r="J9">
-        <v>51423</v>
+        <v>2165</v>
       </c>
       <c r="K9">
-        <v>39755</v>
+        <v>2575</v>
       </c>
       <c r="L9">
-        <v>32339</v>
+        <v>2653</v>
       </c>
       <c r="M9">
-        <v>36292</v>
+        <v>4184</v>
       </c>
       <c r="N9">
-        <v>22655</v>
+        <v>2809</v>
       </c>
       <c r="O9">
-        <v>16856</v>
+        <v>3678</v>
       </c>
       <c r="P9">
-        <v>27596</v>
+        <v>6549</v>
       </c>
       <c r="Q9">
-        <v>13703</v>
+        <v>5673</v>
       </c>
       <c r="R9">
-        <v>13786</v>
+        <v>7499</v>
       </c>
       <c r="S9">
-        <v>10592</v>
+        <v>13335</v>
       </c>
       <c r="T9">
-        <v>6446</v>
+        <v>20387</v>
       </c>
       <c r="U9">
-        <v>5736</v>
+        <v>18223</v>
       </c>
       <c r="V9">
-        <v>6266</v>
+        <v>34121</v>
       </c>
       <c r="W9">
-        <v>6906</v>
+        <v>51688</v>
       </c>
       <c r="X9">
-        <v>5191</v>
+        <v>51701</v>
       </c>
       <c r="Y9">
-        <v>3836</v>
+        <v>59144</v>
       </c>
       <c r="Z9">
-        <v>2685</v>
+        <v>86456</v>
       </c>
       <c r="AA9">
-        <v>3031</v>
+        <v>105617</v>
       </c>
       <c r="AB9">
-        <v>2761</v>
+        <v>127606</v>
       </c>
       <c r="AC9">
-        <v>1133</v>
+        <v>146223</v>
       </c>
       <c r="AD9">
-        <v>1644</v>
+        <v>176130</v>
       </c>
       <c r="AE9">
-        <v>971</v>
+        <v>216177</v>
       </c>
       <c r="AF9">
-        <v>833</v>
+        <v>218536</v>
       </c>
       <c r="AG9">
-        <v>944</v>
+        <v>226662</v>
       </c>
       <c r="AH9">
-        <v>1138</v>
+        <v>302929</v>
       </c>
       <c r="AI9">
-        <v>661</v>
+        <v>289056</v>
       </c>
       <c r="AJ9">
-        <v>805</v>
+        <v>317169</v>
       </c>
       <c r="AK9">
-        <v>635</v>
+        <v>342542</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
@@ -1376,112 +1367,112 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>101391</v>
+        <v>917</v>
       </c>
       <c r="C10">
-        <v>116496</v>
+        <v>1143</v>
       </c>
       <c r="D10">
-        <v>105427</v>
+        <v>987</v>
       </c>
       <c r="E10">
-        <v>81020</v>
+        <v>1460</v>
       </c>
       <c r="F10">
-        <v>86842</v>
+        <v>1359</v>
       </c>
       <c r="G10">
-        <v>72614</v>
+        <v>1579</v>
       </c>
       <c r="H10">
-        <v>57371</v>
+        <v>1587</v>
       </c>
       <c r="I10">
-        <v>64418</v>
+        <v>1768</v>
       </c>
       <c r="J10">
-        <v>49425</v>
+        <v>1816</v>
       </c>
       <c r="K10">
-        <v>39578</v>
+        <v>2313</v>
       </c>
       <c r="L10">
-        <v>35234</v>
+        <v>2209</v>
       </c>
       <c r="M10">
-        <v>35714</v>
+        <v>3540</v>
       </c>
       <c r="N10">
-        <v>22558</v>
+        <v>2495</v>
       </c>
       <c r="O10">
-        <v>24901</v>
+        <v>3700</v>
       </c>
       <c r="P10">
-        <v>27184</v>
+        <v>6210</v>
       </c>
       <c r="Q10">
-        <v>14089</v>
+        <v>5794</v>
       </c>
       <c r="R10">
-        <v>13020</v>
+        <v>7009</v>
       </c>
       <c r="S10">
-        <v>10623</v>
+        <v>12967</v>
       </c>
       <c r="T10">
-        <v>6677</v>
+        <v>19914</v>
       </c>
       <c r="U10">
-        <v>8332</v>
+        <v>17685</v>
       </c>
       <c r="V10">
-        <v>6099</v>
+        <v>32896</v>
       </c>
       <c r="W10">
-        <v>6554</v>
+        <v>51353</v>
       </c>
       <c r="X10">
-        <v>5171</v>
+        <v>49989</v>
       </c>
       <c r="Y10">
-        <v>3720</v>
+        <v>58935</v>
       </c>
       <c r="Z10">
-        <v>3021</v>
+        <v>86076</v>
       </c>
       <c r="AA10">
-        <v>2746</v>
+        <v>102684</v>
       </c>
       <c r="AB10">
-        <v>2851</v>
+        <v>128473</v>
       </c>
       <c r="AC10">
-        <v>1279</v>
+        <v>138897</v>
       </c>
       <c r="AD10">
-        <v>1638</v>
+        <v>168058</v>
       </c>
       <c r="AE10">
-        <v>1293</v>
+        <v>211227</v>
       </c>
       <c r="AF10">
-        <v>792</v>
+        <v>204979</v>
       </c>
       <c r="AG10">
-        <v>1021</v>
+        <v>222020</v>
       </c>
       <c r="AH10">
-        <v>1028</v>
+        <v>283004</v>
       </c>
       <c r="AI10">
-        <v>646</v>
+        <v>279996</v>
       </c>
       <c r="AJ10">
-        <v>593</v>
+        <v>299329</v>
       </c>
       <c r="AK10">
-        <v>748</v>
+        <v>336581</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
@@ -1489,112 +1480,112 @@
         <v>22.5</v>
       </c>
       <c r="B11">
-        <v>99930</v>
+        <v>926</v>
       </c>
       <c r="C11">
-        <v>121781</v>
+        <v>1068</v>
       </c>
       <c r="D11">
-        <v>105988</v>
+        <v>948</v>
       </c>
       <c r="E11">
-        <v>80611</v>
+        <v>1202</v>
       </c>
       <c r="F11">
-        <v>84949</v>
+        <v>1494</v>
       </c>
       <c r="G11">
-        <v>75588</v>
+        <v>1524</v>
       </c>
       <c r="H11">
-        <v>56621</v>
+        <v>1492</v>
       </c>
       <c r="I11">
-        <v>63195</v>
+        <v>1989</v>
       </c>
       <c r="J11">
-        <v>50381</v>
+        <v>1697</v>
       </c>
       <c r="K11">
-        <v>40242</v>
+        <v>2090</v>
       </c>
       <c r="L11">
-        <v>37402</v>
+        <v>2194</v>
       </c>
       <c r="M11">
-        <v>34598</v>
+        <v>3721</v>
       </c>
       <c r="N11">
-        <v>23238</v>
+        <v>2369</v>
       </c>
       <c r="O11">
-        <v>24690</v>
+        <v>3493</v>
       </c>
       <c r="P11">
-        <v>27524</v>
+        <v>5929</v>
       </c>
       <c r="Q11">
-        <v>13829</v>
+        <v>5586</v>
       </c>
       <c r="R11">
-        <v>12773</v>
+        <v>7189</v>
       </c>
       <c r="S11">
-        <v>11035</v>
+        <v>12966</v>
       </c>
       <c r="T11">
-        <v>6652</v>
+        <v>19704</v>
       </c>
       <c r="U11">
-        <v>7356</v>
+        <v>17250</v>
       </c>
       <c r="V11">
-        <v>7554</v>
+        <v>32058</v>
       </c>
       <c r="W11">
-        <v>6720</v>
+        <v>50090</v>
       </c>
       <c r="X11">
-        <v>5244</v>
+        <v>49407</v>
       </c>
       <c r="Y11">
-        <v>7139</v>
+        <v>57420</v>
       </c>
       <c r="Z11">
-        <v>2894</v>
+        <v>83884</v>
       </c>
       <c r="AA11">
-        <v>2712</v>
+        <v>100220</v>
       </c>
       <c r="AB11">
-        <v>2696</v>
+        <v>126327</v>
       </c>
       <c r="AC11">
-        <v>939</v>
+        <v>141568</v>
       </c>
       <c r="AD11">
-        <v>1619</v>
+        <v>166100</v>
       </c>
       <c r="AE11">
-        <v>1282</v>
+        <v>210887</v>
       </c>
       <c r="AF11">
-        <v>845</v>
+        <v>203425</v>
       </c>
       <c r="AG11">
-        <v>821</v>
+        <v>224632</v>
       </c>
       <c r="AH11">
-        <v>923</v>
+        <v>282629</v>
       </c>
       <c r="AI11">
-        <v>861</v>
+        <v>271130</v>
       </c>
       <c r="AJ11">
-        <v>576</v>
+        <v>293963</v>
       </c>
       <c r="AK11">
-        <v>992</v>
+        <v>334006</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
@@ -1602,112 +1593,112 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>98874</v>
+        <v>883</v>
       </c>
       <c r="C12">
-        <v>126474</v>
+        <v>1072</v>
       </c>
       <c r="D12">
-        <v>105030</v>
+        <v>998</v>
       </c>
       <c r="E12">
-        <v>82209</v>
+        <v>1203</v>
       </c>
       <c r="F12">
-        <v>86935</v>
+        <v>1551</v>
       </c>
       <c r="G12">
-        <v>76180</v>
+        <v>1486</v>
       </c>
       <c r="H12">
-        <v>56084</v>
+        <v>1491</v>
       </c>
       <c r="I12">
-        <v>61802</v>
+        <v>1728</v>
       </c>
       <c r="J12">
-        <v>48609</v>
+        <v>1749</v>
       </c>
       <c r="K12">
-        <v>39475</v>
+        <v>2141</v>
       </c>
       <c r="L12">
-        <v>35796</v>
+        <v>2298</v>
       </c>
       <c r="M12">
-        <v>35178</v>
+        <v>3457</v>
       </c>
       <c r="N12">
-        <v>22174</v>
+        <v>2438</v>
       </c>
       <c r="O12">
-        <v>24449</v>
+        <v>3300</v>
       </c>
       <c r="P12">
-        <v>26967</v>
+        <v>5853</v>
       </c>
       <c r="Q12">
-        <v>13713</v>
+        <v>4989</v>
       </c>
       <c r="R12">
-        <v>12938</v>
+        <v>6672</v>
       </c>
       <c r="S12">
-        <v>11134</v>
+        <v>12687</v>
       </c>
       <c r="T12">
-        <v>6529</v>
+        <v>18821</v>
       </c>
       <c r="U12">
-        <v>6776</v>
+        <v>16969</v>
       </c>
       <c r="V12">
-        <v>9032</v>
+        <v>31844</v>
       </c>
       <c r="W12">
-        <v>5759</v>
+        <v>48829</v>
       </c>
       <c r="X12">
-        <v>4812</v>
+        <v>48421</v>
       </c>
       <c r="Y12">
-        <v>6448</v>
+        <v>56175</v>
       </c>
       <c r="Z12">
-        <v>2730</v>
+        <v>82860</v>
       </c>
       <c r="AA12">
-        <v>3012</v>
+        <v>99025</v>
       </c>
       <c r="AB12">
-        <v>2197</v>
+        <v>123560</v>
       </c>
       <c r="AC12">
-        <v>882</v>
+        <v>137502</v>
       </c>
       <c r="AD12">
-        <v>1598</v>
+        <v>158617</v>
       </c>
       <c r="AE12">
-        <v>1242</v>
+        <v>202569</v>
       </c>
       <c r="AF12">
-        <v>800</v>
+        <v>194463</v>
       </c>
       <c r="AG12">
-        <v>766</v>
+        <v>224853</v>
       </c>
       <c r="AH12">
-        <v>991</v>
+        <v>287250</v>
       </c>
       <c r="AI12">
-        <v>694</v>
+        <v>264530</v>
       </c>
       <c r="AJ12">
-        <v>515</v>
+        <v>288162</v>
       </c>
       <c r="AK12">
-        <v>848</v>
+        <v>319261</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.45">
@@ -1715,112 +1706,112 @@
         <v>27.5</v>
       </c>
       <c r="B13">
-        <v>98196</v>
+        <v>1001</v>
       </c>
       <c r="C13">
-        <v>124961</v>
+        <v>1118</v>
       </c>
       <c r="D13">
-        <v>105462</v>
+        <v>1083</v>
       </c>
       <c r="E13">
-        <v>81399</v>
+        <v>1142</v>
       </c>
       <c r="F13">
-        <v>86146</v>
+        <v>1370</v>
       </c>
       <c r="G13">
-        <v>77117</v>
+        <v>1281</v>
       </c>
       <c r="H13">
-        <v>56104</v>
+        <v>1297</v>
       </c>
       <c r="I13">
-        <v>61310</v>
+        <v>1676</v>
       </c>
       <c r="J13">
-        <v>48433</v>
+        <v>1716</v>
       </c>
       <c r="K13">
-        <v>39503</v>
+        <v>2025</v>
       </c>
       <c r="L13">
-        <v>35446</v>
+        <v>2288</v>
       </c>
       <c r="M13">
-        <v>35703</v>
+        <v>3358</v>
       </c>
       <c r="N13">
-        <v>22528</v>
+        <v>2310</v>
       </c>
       <c r="O13">
-        <v>22739</v>
+        <v>3118</v>
       </c>
       <c r="P13">
-        <v>28025</v>
+        <v>5526</v>
       </c>
       <c r="Q13">
-        <v>13763</v>
+        <v>5400</v>
       </c>
       <c r="R13">
-        <v>12198</v>
+        <v>6464</v>
       </c>
       <c r="S13">
-        <v>11187</v>
+        <v>12192</v>
       </c>
       <c r="T13">
-        <v>6519</v>
+        <v>18810</v>
       </c>
       <c r="U13">
-        <v>6840</v>
+        <v>16374</v>
       </c>
       <c r="V13">
-        <v>9116</v>
+        <v>31018</v>
       </c>
       <c r="W13">
-        <v>5745</v>
+        <v>49443</v>
       </c>
       <c r="X13">
-        <v>4362</v>
+        <v>48011</v>
       </c>
       <c r="Y13">
-        <v>6243</v>
+        <v>54957</v>
       </c>
       <c r="Z13">
-        <v>2555</v>
+        <v>81251</v>
       </c>
       <c r="AA13">
-        <v>2763</v>
+        <v>97573</v>
       </c>
       <c r="AB13">
-        <v>2274</v>
+        <v>120937</v>
       </c>
       <c r="AC13">
-        <v>1012</v>
+        <v>136200</v>
       </c>
       <c r="AD13">
-        <v>1458</v>
+        <v>158565</v>
       </c>
       <c r="AE13">
-        <v>1167</v>
+        <v>207052</v>
       </c>
       <c r="AF13">
-        <v>730</v>
+        <v>192609</v>
       </c>
       <c r="AG13">
-        <v>814</v>
+        <v>216275</v>
       </c>
       <c r="AH13">
-        <v>875</v>
+        <v>276125</v>
       </c>
       <c r="AI13">
-        <v>741</v>
+        <v>262653</v>
       </c>
       <c r="AJ13">
-        <v>650</v>
+        <v>282861</v>
       </c>
       <c r="AK13">
-        <v>736</v>
+        <v>313797</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.45">
@@ -1828,112 +1819,112 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>97084</v>
+        <v>837</v>
       </c>
       <c r="C14">
-        <v>133825</v>
+        <v>900</v>
       </c>
       <c r="D14">
-        <v>105147</v>
+        <v>909</v>
       </c>
       <c r="E14">
-        <v>78836</v>
+        <v>1040</v>
       </c>
       <c r="F14">
-        <v>83739</v>
+        <v>1320</v>
       </c>
       <c r="G14">
-        <v>76249</v>
+        <v>1506</v>
       </c>
       <c r="H14">
-        <v>55574</v>
+        <v>1446</v>
       </c>
       <c r="I14">
-        <v>62744</v>
+        <v>1648</v>
       </c>
       <c r="J14">
-        <v>48709</v>
+        <v>1718</v>
       </c>
       <c r="K14">
-        <v>39943</v>
+        <v>2005</v>
       </c>
       <c r="L14">
-        <v>33799</v>
+        <v>2042</v>
       </c>
       <c r="M14">
-        <v>35409</v>
+        <v>3135</v>
       </c>
       <c r="N14">
-        <v>20634</v>
+        <v>2252</v>
       </c>
       <c r="O14">
-        <v>22706</v>
+        <v>2727</v>
       </c>
       <c r="P14">
-        <v>29024</v>
+        <v>5495</v>
       </c>
       <c r="Q14">
-        <v>13285</v>
+        <v>4864</v>
       </c>
       <c r="R14">
-        <v>11747</v>
+        <v>6236</v>
       </c>
       <c r="S14">
-        <v>12813</v>
+        <v>11963</v>
       </c>
       <c r="T14">
-        <v>6181</v>
+        <v>18349</v>
       </c>
       <c r="U14">
-        <v>6954</v>
+        <v>15690</v>
       </c>
       <c r="V14">
-        <v>8683</v>
+        <v>31142</v>
       </c>
       <c r="W14">
-        <v>5461</v>
+        <v>47493</v>
       </c>
       <c r="X14">
-        <v>4419</v>
+        <v>47348</v>
       </c>
       <c r="Y14">
-        <v>5551</v>
+        <v>54951</v>
       </c>
       <c r="Z14">
-        <v>2556</v>
+        <v>80947</v>
       </c>
       <c r="AA14">
-        <v>2801</v>
+        <v>95412</v>
       </c>
       <c r="AB14">
-        <v>2092</v>
+        <v>120476</v>
       </c>
       <c r="AC14">
-        <v>911</v>
+        <v>134806</v>
       </c>
       <c r="AD14">
-        <v>1432</v>
+        <v>160233</v>
       </c>
       <c r="AE14">
-        <v>964</v>
+        <v>195357</v>
       </c>
       <c r="AF14">
-        <v>702</v>
+        <v>197179</v>
       </c>
       <c r="AG14">
-        <v>778</v>
+        <v>207544</v>
       </c>
       <c r="AH14">
-        <v>772</v>
+        <v>270945</v>
       </c>
       <c r="AI14">
-        <v>610</v>
+        <v>248786</v>
       </c>
       <c r="AJ14">
-        <v>509</v>
+        <v>275721</v>
       </c>
       <c r="AK14">
-        <v>808</v>
+        <v>312599</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB747E1-E119-4645-9E9D-5E66F2A3ABCF}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection sqref="A1:AK14"/>
     </sheetView>
   </sheetViews>
@@ -1953,112 +1944,112 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B1">
+        <v>9.765625</v>
+      </c>
+      <c r="C1">
+        <v>9.765625</v>
+      </c>
+      <c r="D1">
+        <v>9.765625</v>
+      </c>
+      <c r="E1">
+        <v>19.53125</v>
+      </c>
+      <c r="F1">
+        <v>19.53125</v>
+      </c>
+      <c r="G1">
+        <v>19.53125</v>
+      </c>
+      <c r="H1">
+        <v>39.0625</v>
+      </c>
+      <c r="I1">
+        <v>39.0625</v>
+      </c>
+      <c r="J1">
+        <v>39.0625</v>
+      </c>
+      <c r="K1">
+        <v>78.125</v>
+      </c>
+      <c r="L1">
+        <v>78.125</v>
+      </c>
+      <c r="M1">
+        <v>78.125</v>
+      </c>
+      <c r="N1">
+        <v>156.25</v>
+      </c>
+      <c r="O1">
+        <v>156.25</v>
+      </c>
+      <c r="P1">
+        <v>156.25</v>
+      </c>
+      <c r="Q1">
+        <v>312.5</v>
+      </c>
+      <c r="R1">
+        <v>312.5</v>
+      </c>
+      <c r="S1">
+        <v>312.5</v>
+      </c>
+      <c r="T1">
+        <v>625</v>
+      </c>
+      <c r="U1">
+        <v>625</v>
+      </c>
+      <c r="V1">
+        <v>625</v>
+      </c>
+      <c r="W1">
+        <v>1250</v>
+      </c>
+      <c r="X1">
+        <v>1250</v>
+      </c>
+      <c r="Y1">
+        <v>1250</v>
+      </c>
+      <c r="Z1">
+        <v>2500</v>
+      </c>
+      <c r="AA1">
+        <v>2500</v>
+      </c>
+      <c r="AB1">
+        <v>2500</v>
+      </c>
+      <c r="AC1">
+        <v>5000</v>
+      </c>
+      <c r="AD1">
+        <v>5000</v>
+      </c>
+      <c r="AE1">
+        <v>5000</v>
+      </c>
+      <c r="AF1">
+        <v>10000</v>
+      </c>
+      <c r="AG1">
+        <v>10000</v>
+      </c>
+      <c r="AH1">
+        <v>10000</v>
+      </c>
+      <c r="AI1">
         <v>20000</v>
       </c>
-      <c r="C1">
+      <c r="AJ1">
         <v>20000</v>
       </c>
-      <c r="D1">
+      <c r="AK1">
         <v>20000</v>
-      </c>
-      <c r="E1">
-        <v>10000</v>
-      </c>
-      <c r="F1">
-        <v>10000</v>
-      </c>
-      <c r="G1">
-        <v>10000</v>
-      </c>
-      <c r="H1">
-        <v>5000</v>
-      </c>
-      <c r="I1">
-        <v>5000</v>
-      </c>
-      <c r="J1">
-        <v>5000</v>
-      </c>
-      <c r="K1">
-        <v>2500</v>
-      </c>
-      <c r="L1">
-        <v>2500</v>
-      </c>
-      <c r="M1">
-        <v>2500</v>
-      </c>
-      <c r="N1">
-        <v>1250</v>
-      </c>
-      <c r="O1">
-        <v>1250</v>
-      </c>
-      <c r="P1">
-        <v>1250</v>
-      </c>
-      <c r="Q1">
-        <v>625</v>
-      </c>
-      <c r="R1">
-        <v>625</v>
-      </c>
-      <c r="S1">
-        <v>625</v>
-      </c>
-      <c r="T1">
-        <v>312.5</v>
-      </c>
-      <c r="U1">
-        <v>312.5</v>
-      </c>
-      <c r="V1">
-        <v>312.5</v>
-      </c>
-      <c r="W1">
-        <v>156.25</v>
-      </c>
-      <c r="X1">
-        <v>156.25</v>
-      </c>
-      <c r="Y1">
-        <v>156.25</v>
-      </c>
-      <c r="Z1">
-        <v>78.125</v>
-      </c>
-      <c r="AA1">
-        <v>78.125</v>
-      </c>
-      <c r="AB1">
-        <v>78.125</v>
-      </c>
-      <c r="AC1">
-        <v>39.0625</v>
-      </c>
-      <c r="AD1">
-        <v>39.0625</v>
-      </c>
-      <c r="AE1">
-        <v>39.0625</v>
-      </c>
-      <c r="AF1">
-        <v>19.53125</v>
-      </c>
-      <c r="AG1">
-        <v>19.53125</v>
-      </c>
-      <c r="AH1">
-        <v>19.53125</v>
-      </c>
-      <c r="AI1">
-        <v>0</v>
-      </c>
-      <c r="AJ1">
-        <v>0</v>
-      </c>
-      <c r="AK1">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.45">
@@ -2066,112 +2057,112 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>279350</v>
+        <v>3044</v>
       </c>
       <c r="C2">
-        <v>266045</v>
+        <v>2289</v>
       </c>
       <c r="D2">
-        <v>245216</v>
+        <v>3115</v>
       </c>
       <c r="E2">
-        <v>183276</v>
+        <v>4150</v>
       </c>
       <c r="F2">
-        <v>158824</v>
+        <v>4374</v>
       </c>
       <c r="G2">
-        <v>112055</v>
+        <v>4727</v>
       </c>
       <c r="H2">
-        <v>105567</v>
+        <v>6691</v>
       </c>
       <c r="I2">
-        <v>90508</v>
+        <v>7191</v>
       </c>
       <c r="J2">
-        <v>89132</v>
+        <v>7927</v>
       </c>
       <c r="K2">
-        <v>66343</v>
+        <v>8878</v>
       </c>
       <c r="L2">
-        <v>54864</v>
+        <v>9031</v>
       </c>
       <c r="M2">
-        <v>55035</v>
+        <v>10726</v>
       </c>
       <c r="N2">
-        <v>36734</v>
+        <v>12525</v>
       </c>
       <c r="O2">
-        <v>33107</v>
+        <v>13089</v>
       </c>
       <c r="P2">
-        <v>24769</v>
+        <v>13910</v>
       </c>
       <c r="Q2">
-        <v>20472</v>
+        <v>17614</v>
       </c>
       <c r="R2">
-        <v>18908</v>
+        <v>19940</v>
       </c>
       <c r="S2">
-        <v>15467</v>
+        <v>21822</v>
       </c>
       <c r="T2">
-        <v>11244</v>
+        <v>31527</v>
       </c>
       <c r="U2">
-        <v>11605</v>
+        <v>33936</v>
       </c>
       <c r="V2">
-        <v>11161</v>
+        <v>36907</v>
       </c>
       <c r="W2">
-        <v>8248</v>
+        <v>54009</v>
       </c>
       <c r="X2">
-        <v>8049</v>
+        <v>56013</v>
       </c>
       <c r="Y2">
-        <v>6480</v>
+        <v>57586</v>
       </c>
       <c r="Z2">
-        <v>4725</v>
+        <v>81594</v>
       </c>
       <c r="AA2">
-        <v>4308</v>
+        <v>81464</v>
       </c>
       <c r="AB2">
-        <v>3687</v>
+        <v>106217</v>
       </c>
       <c r="AC2">
-        <v>3798</v>
+        <v>103578</v>
       </c>
       <c r="AD2">
-        <v>3685</v>
+        <v>155229</v>
       </c>
       <c r="AE2">
-        <v>2621</v>
+        <v>183561</v>
       </c>
       <c r="AF2">
-        <v>2178</v>
+        <v>238681</v>
       </c>
       <c r="AG2">
-        <v>2130</v>
+        <v>254278</v>
       </c>
       <c r="AH2">
-        <v>1687</v>
+        <v>213589</v>
       </c>
       <c r="AI2">
-        <v>951</v>
+        <v>445940</v>
       </c>
       <c r="AJ2">
-        <v>1368</v>
+        <v>441524</v>
       </c>
       <c r="AK2">
-        <v>1041</v>
+        <v>454000</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -2179,112 +2170,112 @@
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>265932</v>
+        <v>2479</v>
       </c>
       <c r="C3">
-        <v>253158</v>
+        <v>2090</v>
       </c>
       <c r="D3">
-        <v>240612</v>
+        <v>2657</v>
       </c>
       <c r="E3">
-        <v>182980</v>
+        <v>3683</v>
       </c>
       <c r="F3">
-        <v>150727</v>
+        <v>3763</v>
       </c>
       <c r="G3">
-        <v>110664</v>
+        <v>4108</v>
       </c>
       <c r="H3">
-        <v>104660</v>
+        <v>6087</v>
       </c>
       <c r="I3">
-        <v>88813</v>
+        <v>6626</v>
       </c>
       <c r="J3">
-        <v>85868</v>
+        <v>6892</v>
       </c>
       <c r="K3">
-        <v>64756</v>
+        <v>8019</v>
       </c>
       <c r="L3">
-        <v>53178</v>
+        <v>8316</v>
       </c>
       <c r="M3">
-        <v>53693</v>
+        <v>9826</v>
       </c>
       <c r="N3">
-        <v>35601</v>
+        <v>11242</v>
       </c>
       <c r="O3">
-        <v>31655</v>
+        <v>12812</v>
       </c>
       <c r="P3">
-        <v>23038</v>
+        <v>13378</v>
       </c>
       <c r="Q3">
-        <v>20575</v>
+        <v>17426</v>
       </c>
       <c r="R3">
-        <v>18604</v>
+        <v>18391</v>
       </c>
       <c r="S3">
-        <v>15142</v>
+        <v>20927</v>
       </c>
       <c r="T3">
-        <v>10655</v>
+        <v>30410</v>
       </c>
       <c r="U3">
-        <v>11742</v>
+        <v>32819</v>
       </c>
       <c r="V3">
-        <v>11411</v>
+        <v>35745</v>
       </c>
       <c r="W3">
-        <v>8083</v>
+        <v>53883</v>
       </c>
       <c r="X3">
-        <v>11975</v>
+        <v>54996</v>
       </c>
       <c r="Y3">
-        <v>6897</v>
+        <v>56262</v>
       </c>
       <c r="Z3">
-        <v>4692</v>
+        <v>80533</v>
       </c>
       <c r="AA3">
-        <v>4903</v>
+        <v>78852</v>
       </c>
       <c r="AB3">
-        <v>3837</v>
+        <v>101529</v>
       </c>
       <c r="AC3">
-        <v>3341</v>
+        <v>103740</v>
       </c>
       <c r="AD3">
-        <v>3148</v>
+        <v>151007</v>
       </c>
       <c r="AE3">
-        <v>2302</v>
+        <v>179207</v>
       </c>
       <c r="AF3">
-        <v>2021</v>
+        <v>244274</v>
       </c>
       <c r="AG3">
-        <v>2025</v>
+        <v>250142</v>
       </c>
       <c r="AH3">
-        <v>1722</v>
+        <v>204219</v>
       </c>
       <c r="AI3">
-        <v>808</v>
+        <v>442430</v>
       </c>
       <c r="AJ3">
-        <v>1282</v>
+        <v>442457</v>
       </c>
       <c r="AK3">
-        <v>814</v>
+        <v>453730</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -2292,112 +2283,112 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>264112</v>
+        <v>2263</v>
       </c>
       <c r="C4">
-        <v>237996</v>
+        <v>1917</v>
       </c>
       <c r="D4">
-        <v>232053</v>
+        <v>2624</v>
       </c>
       <c r="E4">
-        <v>178571</v>
+        <v>3273</v>
       </c>
       <c r="F4">
-        <v>146881</v>
+        <v>3799</v>
       </c>
       <c r="G4">
-        <v>113174</v>
+        <v>4151</v>
       </c>
       <c r="H4">
-        <v>100459</v>
+        <v>5941</v>
       </c>
       <c r="I4">
-        <v>89475</v>
+        <v>6629</v>
       </c>
       <c r="J4">
-        <v>86743</v>
+        <v>7308</v>
       </c>
       <c r="K4">
-        <v>62647</v>
+        <v>8243</v>
       </c>
       <c r="L4">
-        <v>52290</v>
+        <v>8188</v>
       </c>
       <c r="M4">
-        <v>51785</v>
+        <v>9209</v>
       </c>
       <c r="N4">
-        <v>35233</v>
+        <v>11066</v>
       </c>
       <c r="O4">
-        <v>30836</v>
+        <v>12340</v>
       </c>
       <c r="P4">
-        <v>23656</v>
+        <v>12898</v>
       </c>
       <c r="Q4">
-        <v>19882</v>
+        <v>17787</v>
       </c>
       <c r="R4">
-        <v>17761</v>
+        <v>18754</v>
       </c>
       <c r="S4">
-        <v>14740</v>
+        <v>19829</v>
       </c>
       <c r="T4">
-        <v>10136</v>
+        <v>30119</v>
       </c>
       <c r="U4">
-        <v>12088</v>
+        <v>32693</v>
       </c>
       <c r="V4">
-        <v>11116</v>
+        <v>35532</v>
       </c>
       <c r="W4">
-        <v>7619</v>
+        <v>52259</v>
       </c>
       <c r="X4">
-        <v>12283</v>
+        <v>54317</v>
       </c>
       <c r="Y4">
-        <v>7132</v>
+        <v>56577</v>
       </c>
       <c r="Z4">
-        <v>4691</v>
+        <v>78620</v>
       </c>
       <c r="AA4">
-        <v>4321</v>
+        <v>78985</v>
       </c>
       <c r="AB4">
-        <v>4052</v>
+        <v>102767</v>
       </c>
       <c r="AC4">
-        <v>3372</v>
+        <v>102726</v>
       </c>
       <c r="AD4">
-        <v>2845</v>
+        <v>147443</v>
       </c>
       <c r="AE4">
-        <v>2467</v>
+        <v>182444</v>
       </c>
       <c r="AF4">
-        <v>2124</v>
+        <v>244408</v>
       </c>
       <c r="AG4">
-        <v>1804</v>
+        <v>256843</v>
       </c>
       <c r="AH4">
-        <v>1555</v>
+        <v>204361</v>
       </c>
       <c r="AI4">
-        <v>751</v>
+        <v>439054</v>
       </c>
       <c r="AJ4">
-        <v>979</v>
+        <v>448571</v>
       </c>
       <c r="AK4">
-        <v>674</v>
+        <v>455214</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -2405,112 +2396,112 @@
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>262982</v>
+        <v>2466</v>
       </c>
       <c r="C5">
-        <v>240829</v>
+        <v>1743</v>
       </c>
       <c r="D5">
-        <v>223781</v>
+        <v>2530</v>
       </c>
       <c r="E5">
-        <v>181795</v>
+        <v>3368</v>
       </c>
       <c r="F5">
-        <v>149254</v>
+        <v>3451</v>
       </c>
       <c r="G5">
-        <v>114650</v>
+        <v>3706</v>
       </c>
       <c r="H5">
-        <v>98924</v>
+        <v>5753</v>
       </c>
       <c r="I5">
-        <v>88272</v>
+        <v>6733</v>
       </c>
       <c r="J5">
-        <v>84544</v>
+        <v>6772</v>
       </c>
       <c r="K5">
-        <v>63026</v>
+        <v>8049</v>
       </c>
       <c r="L5">
-        <v>51176</v>
+        <v>8172</v>
       </c>
       <c r="M5">
-        <v>53023</v>
+        <v>9254</v>
       </c>
       <c r="N5">
-        <v>33706</v>
+        <v>10742</v>
       </c>
       <c r="O5">
-        <v>30528</v>
+        <v>11963</v>
       </c>
       <c r="P5">
-        <v>23363</v>
+        <v>13194</v>
       </c>
       <c r="Q5">
-        <v>19050</v>
+        <v>16884</v>
       </c>
       <c r="R5">
-        <v>17950</v>
+        <v>17752</v>
       </c>
       <c r="S5">
-        <v>15220</v>
+        <v>20299</v>
       </c>
       <c r="T5">
-        <v>10199</v>
+        <v>30433</v>
       </c>
       <c r="U5">
-        <v>12352</v>
+        <v>32132</v>
       </c>
       <c r="V5">
-        <v>11465</v>
+        <v>35471</v>
       </c>
       <c r="W5">
-        <v>8203</v>
+        <v>52258</v>
       </c>
       <c r="X5">
-        <v>11701</v>
+        <v>55058</v>
       </c>
       <c r="Y5">
-        <v>7248</v>
+        <v>55250</v>
       </c>
       <c r="Z5">
-        <v>4552</v>
+        <v>79551</v>
       </c>
       <c r="AA5">
-        <v>4224</v>
+        <v>78583</v>
       </c>
       <c r="AB5">
-        <v>4368</v>
+        <v>100656</v>
       </c>
       <c r="AC5">
-        <v>3111</v>
+        <v>102596</v>
       </c>
       <c r="AD5">
-        <v>3035</v>
+        <v>152325</v>
       </c>
       <c r="AE5">
-        <v>2083</v>
+        <v>182045</v>
       </c>
       <c r="AF5">
-        <v>1785</v>
+        <v>236494</v>
       </c>
       <c r="AG5">
-        <v>1936</v>
+        <v>255246</v>
       </c>
       <c r="AH5">
-        <v>1436</v>
+        <v>209796</v>
       </c>
       <c r="AI5">
-        <v>709</v>
+        <v>433472</v>
       </c>
       <c r="AJ5">
-        <v>858</v>
+        <v>439412</v>
       </c>
       <c r="AK5">
-        <v>685</v>
+        <v>455310</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
@@ -2518,112 +2509,112 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>256903</v>
+        <v>1885</v>
       </c>
       <c r="C6">
-        <v>238359</v>
+        <v>1954</v>
       </c>
       <c r="D6">
-        <v>221703</v>
+        <v>2569</v>
       </c>
       <c r="E6">
-        <v>171953</v>
+        <v>3232</v>
       </c>
       <c r="F6">
-        <v>147199</v>
+        <v>3560</v>
       </c>
       <c r="G6">
-        <v>109096</v>
+        <v>4034</v>
       </c>
       <c r="H6">
-        <v>97198</v>
+        <v>5819</v>
       </c>
       <c r="I6">
-        <v>86993</v>
+        <v>6344</v>
       </c>
       <c r="J6">
-        <v>83372</v>
+        <v>6721</v>
       </c>
       <c r="K6">
-        <v>63467</v>
+        <v>8090</v>
       </c>
       <c r="L6">
-        <v>51615</v>
+        <v>7954</v>
       </c>
       <c r="M6">
-        <v>51661</v>
+        <v>9000</v>
       </c>
       <c r="N6">
-        <v>33744</v>
+        <v>11120</v>
       </c>
       <c r="O6">
-        <v>31642</v>
+        <v>12281</v>
       </c>
       <c r="P6">
-        <v>22861</v>
+        <v>12530</v>
       </c>
       <c r="Q6">
-        <v>18988</v>
+        <v>16604</v>
       </c>
       <c r="R6">
-        <v>17797</v>
+        <v>18097</v>
       </c>
       <c r="S6">
-        <v>14959</v>
+        <v>20496</v>
       </c>
       <c r="T6">
-        <v>10482</v>
+        <v>29793</v>
       </c>
       <c r="U6">
-        <v>11946</v>
+        <v>32352</v>
       </c>
       <c r="V6">
-        <v>11148</v>
+        <v>34684</v>
       </c>
       <c r="W6">
-        <v>8447</v>
+        <v>50580</v>
       </c>
       <c r="X6">
-        <v>11658</v>
+        <v>53901</v>
       </c>
       <c r="Y6">
-        <v>6968</v>
+        <v>54962</v>
       </c>
       <c r="Z6">
-        <v>4411</v>
+        <v>78555</v>
       </c>
       <c r="AA6">
-        <v>4073</v>
+        <v>78041</v>
       </c>
       <c r="AB6">
-        <v>3884</v>
+        <v>99506</v>
       </c>
       <c r="AC6">
-        <v>3015</v>
+        <v>102841</v>
       </c>
       <c r="AD6">
-        <v>2609</v>
+        <v>149734</v>
       </c>
       <c r="AE6">
-        <v>2195</v>
+        <v>172194</v>
       </c>
       <c r="AF6">
-        <v>1765</v>
+        <v>243343</v>
       </c>
       <c r="AG6">
-        <v>1622</v>
+        <v>255898</v>
       </c>
       <c r="AH6">
-        <v>1294</v>
+        <v>203299</v>
       </c>
       <c r="AI6">
-        <v>540</v>
+        <v>426435</v>
       </c>
       <c r="AJ6">
-        <v>682</v>
+        <v>422377</v>
       </c>
       <c r="AK6">
-        <v>545</v>
+        <v>439047</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
@@ -2631,112 +2622,112 @@
         <v>12.5</v>
       </c>
       <c r="B7">
-        <v>251440</v>
+        <v>1925</v>
       </c>
       <c r="C7">
-        <v>228124</v>
+        <v>1682</v>
       </c>
       <c r="D7">
-        <v>210118</v>
+        <v>2278</v>
       </c>
       <c r="E7">
-        <v>172574</v>
+        <v>3019</v>
       </c>
       <c r="F7">
-        <v>145959</v>
+        <v>3100</v>
       </c>
       <c r="G7">
-        <v>107891</v>
+        <v>3669</v>
       </c>
       <c r="H7">
-        <v>97998</v>
+        <v>5059</v>
       </c>
       <c r="I7">
-        <v>87109</v>
+        <v>6378</v>
       </c>
       <c r="J7">
-        <v>82351</v>
+        <v>6143</v>
       </c>
       <c r="K7">
-        <v>62347</v>
+        <v>7566</v>
       </c>
       <c r="L7">
-        <v>49898</v>
+        <v>7728</v>
       </c>
       <c r="M7">
-        <v>51488</v>
+        <v>8752</v>
       </c>
       <c r="N7">
-        <v>34039</v>
+        <v>10020</v>
       </c>
       <c r="O7">
-        <v>31147</v>
+        <v>12126</v>
       </c>
       <c r="P7">
-        <v>22801</v>
+        <v>12390</v>
       </c>
       <c r="Q7">
-        <v>18438</v>
+        <v>15454</v>
       </c>
       <c r="R7">
-        <v>17473</v>
+        <v>17353</v>
       </c>
       <c r="S7">
-        <v>15517</v>
+        <v>18775</v>
       </c>
       <c r="T7">
-        <v>10440</v>
+        <v>28597</v>
       </c>
       <c r="U7">
-        <v>11447</v>
+        <v>30645</v>
       </c>
       <c r="V7">
-        <v>11449</v>
+        <v>32114</v>
       </c>
       <c r="W7">
-        <v>8555</v>
+        <v>48634</v>
       </c>
       <c r="X7">
-        <v>11410</v>
+        <v>51664</v>
       </c>
       <c r="Y7">
-        <v>6996</v>
+        <v>52887</v>
       </c>
       <c r="Z7">
-        <v>4458</v>
+        <v>74202</v>
       </c>
       <c r="AA7">
-        <v>4424</v>
+        <v>75709</v>
       </c>
       <c r="AB7">
-        <v>3998</v>
+        <v>92952</v>
       </c>
       <c r="AC7">
-        <v>3106</v>
+        <v>97890</v>
       </c>
       <c r="AD7">
-        <v>2706</v>
+        <v>148585</v>
       </c>
       <c r="AE7">
-        <v>2202</v>
+        <v>165465</v>
       </c>
       <c r="AF7">
-        <v>1789</v>
+        <v>232348</v>
       </c>
       <c r="AG7">
-        <v>1820</v>
+        <v>238092</v>
       </c>
       <c r="AH7">
-        <v>1451</v>
+        <v>187862</v>
       </c>
       <c r="AI7">
-        <v>594</v>
+        <v>391914</v>
       </c>
       <c r="AJ7">
-        <v>723</v>
+        <v>391710</v>
       </c>
       <c r="AK7">
-        <v>518</v>
+        <v>401615</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.45">
@@ -2744,112 +2735,112 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>245936</v>
+        <v>1734</v>
       </c>
       <c r="C8">
-        <v>228730</v>
+        <v>1717</v>
       </c>
       <c r="D8">
-        <v>210888</v>
+        <v>2023</v>
       </c>
       <c r="E8">
-        <v>163802</v>
+        <v>2862</v>
       </c>
       <c r="F8">
-        <v>143328</v>
+        <v>3229</v>
       </c>
       <c r="G8">
-        <v>109495</v>
+        <v>3411</v>
       </c>
       <c r="H8">
-        <v>98430</v>
+        <v>5398</v>
       </c>
       <c r="I8">
-        <v>85787</v>
+        <v>5771</v>
       </c>
       <c r="J8">
-        <v>83908</v>
+        <v>6301</v>
       </c>
       <c r="K8">
-        <v>62717</v>
+        <v>6899</v>
       </c>
       <c r="L8">
-        <v>50920</v>
+        <v>7493</v>
       </c>
       <c r="M8">
-        <v>50163</v>
+        <v>8730</v>
       </c>
       <c r="N8">
-        <v>33277</v>
+        <v>10519</v>
       </c>
       <c r="O8">
-        <v>30800</v>
+        <v>11715</v>
       </c>
       <c r="P8">
-        <v>23136</v>
+        <v>11457</v>
       </c>
       <c r="Q8">
-        <v>18861</v>
+        <v>15722</v>
       </c>
       <c r="R8">
-        <v>17038</v>
+        <v>17160</v>
       </c>
       <c r="S8">
-        <v>15781</v>
+        <v>18689</v>
       </c>
       <c r="T8">
-        <v>9742</v>
+        <v>28222</v>
       </c>
       <c r="U8">
-        <v>11680</v>
+        <v>29353</v>
       </c>
       <c r="V8">
-        <v>11507</v>
+        <v>32970</v>
       </c>
       <c r="W8">
-        <v>7926</v>
+        <v>47667</v>
       </c>
       <c r="X8">
-        <v>11226</v>
+        <v>50512</v>
       </c>
       <c r="Y8">
-        <v>7026</v>
+        <v>51487</v>
       </c>
       <c r="Z8">
-        <v>4369</v>
+        <v>74182</v>
       </c>
       <c r="AA8">
-        <v>3994</v>
+        <v>75031</v>
       </c>
       <c r="AB8">
-        <v>3855</v>
+        <v>91669</v>
       </c>
       <c r="AC8">
-        <v>3091</v>
+        <v>96511</v>
       </c>
       <c r="AD8">
-        <v>2846</v>
+        <v>139472</v>
       </c>
       <c r="AE8">
-        <v>2239</v>
+        <v>166938</v>
       </c>
       <c r="AF8">
-        <v>1764</v>
+        <v>223159</v>
       </c>
       <c r="AG8">
-        <v>1622</v>
+        <v>234310</v>
       </c>
       <c r="AH8">
-        <v>1378</v>
+        <v>182689</v>
       </c>
       <c r="AI8">
-        <v>496</v>
+        <v>384421</v>
       </c>
       <c r="AJ8">
-        <v>713</v>
+        <v>400079</v>
       </c>
       <c r="AK8">
-        <v>539</v>
+        <v>396463</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.45">
@@ -2857,112 +2848,112 @@
         <v>17.5</v>
       </c>
       <c r="B9">
-        <v>247399</v>
+        <v>1667</v>
       </c>
       <c r="C9">
-        <v>225835</v>
+        <v>1393</v>
       </c>
       <c r="D9">
-        <v>203918</v>
+        <v>2045</v>
       </c>
       <c r="E9">
-        <v>165606</v>
+        <v>2996</v>
       </c>
       <c r="F9">
-        <v>141306</v>
+        <v>2958</v>
       </c>
       <c r="G9">
-        <v>107001</v>
+        <v>3331</v>
       </c>
       <c r="H9">
-        <v>95299</v>
+        <v>5180</v>
       </c>
       <c r="I9">
-        <v>84337</v>
+        <v>5825</v>
       </c>
       <c r="J9">
-        <v>81428</v>
+        <v>6466</v>
       </c>
       <c r="K9">
-        <v>61098</v>
+        <v>7260</v>
       </c>
       <c r="L9">
-        <v>49217</v>
+        <v>7161</v>
       </c>
       <c r="M9">
-        <v>50121</v>
+        <v>9150</v>
       </c>
       <c r="N9">
-        <v>33080</v>
+        <v>9404</v>
       </c>
       <c r="O9">
-        <v>30784</v>
+        <v>11454</v>
       </c>
       <c r="P9">
-        <v>23263</v>
+        <v>11303</v>
       </c>
       <c r="Q9">
-        <v>19184</v>
+        <v>15186</v>
       </c>
       <c r="R9">
-        <v>17305</v>
+        <v>16815</v>
       </c>
       <c r="S9">
-        <v>15278</v>
+        <v>18280</v>
       </c>
       <c r="T9">
-        <v>10270</v>
+        <v>27221</v>
       </c>
       <c r="U9">
-        <v>11467</v>
+        <v>31326</v>
       </c>
       <c r="V9">
-        <v>11524</v>
+        <v>32094</v>
       </c>
       <c r="W9">
-        <v>8366</v>
+        <v>47813</v>
       </c>
       <c r="X9">
-        <v>11296</v>
+        <v>49750</v>
       </c>
       <c r="Y9">
-        <v>7111</v>
+        <v>50756</v>
       </c>
       <c r="Z9">
-        <v>4428</v>
+        <v>72081</v>
       </c>
       <c r="AA9">
-        <v>4257</v>
+        <v>74171</v>
       </c>
       <c r="AB9">
-        <v>4347</v>
+        <v>91507</v>
       </c>
       <c r="AC9">
-        <v>2840</v>
+        <v>95402</v>
       </c>
       <c r="AD9">
-        <v>2810</v>
+        <v>136842</v>
       </c>
       <c r="AE9">
-        <v>2052</v>
+        <v>161075</v>
       </c>
       <c r="AF9">
-        <v>1936</v>
+        <v>219576</v>
       </c>
       <c r="AG9">
-        <v>1576</v>
+        <v>230572</v>
       </c>
       <c r="AH9">
-        <v>1513</v>
+        <v>185559</v>
       </c>
       <c r="AI9">
-        <v>447</v>
+        <v>376466</v>
       </c>
       <c r="AJ9">
-        <v>670</v>
+        <v>380215</v>
       </c>
       <c r="AK9">
-        <v>584</v>
+        <v>388084</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
@@ -2970,112 +2961,112 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>247465</v>
+        <v>1784</v>
       </c>
       <c r="C10">
-        <v>221518</v>
+        <v>1592</v>
       </c>
       <c r="D10">
-        <v>209540</v>
+        <v>2130</v>
       </c>
       <c r="E10">
-        <v>172738</v>
+        <v>2653</v>
       </c>
       <c r="F10">
-        <v>143098</v>
+        <v>2808</v>
       </c>
       <c r="G10">
-        <v>107322</v>
+        <v>3272</v>
       </c>
       <c r="H10">
-        <v>95718</v>
+        <v>4804</v>
       </c>
       <c r="I10">
-        <v>84429</v>
+        <v>5909</v>
       </c>
       <c r="J10">
-        <v>82323</v>
+        <v>6546</v>
       </c>
       <c r="K10">
-        <v>61026</v>
+        <v>6663</v>
       </c>
       <c r="L10">
-        <v>49712</v>
+        <v>7072</v>
       </c>
       <c r="M10">
-        <v>49868</v>
+        <v>8409</v>
       </c>
       <c r="N10">
-        <v>32790</v>
+        <v>9920</v>
       </c>
       <c r="O10">
-        <v>29584</v>
+        <v>10810</v>
       </c>
       <c r="P10">
-        <v>21923</v>
+        <v>11611</v>
       </c>
       <c r="Q10">
-        <v>18801</v>
+        <v>14714</v>
       </c>
       <c r="R10">
-        <v>16789</v>
+        <v>16337</v>
       </c>
       <c r="S10">
-        <v>15077</v>
+        <v>18186</v>
       </c>
       <c r="T10">
-        <v>9829</v>
+        <v>26953</v>
       </c>
       <c r="U10">
-        <v>11632</v>
+        <v>31053</v>
       </c>
       <c r="V10">
-        <v>11785</v>
+        <v>31695</v>
       </c>
       <c r="W10">
-        <v>7992</v>
+        <v>46797</v>
       </c>
       <c r="X10">
-        <v>11179</v>
+        <v>49432</v>
       </c>
       <c r="Y10">
-        <v>7269</v>
+        <v>50185</v>
       </c>
       <c r="Z10">
-        <v>3908</v>
+        <v>71129</v>
       </c>
       <c r="AA10">
-        <v>3878</v>
+        <v>73605</v>
       </c>
       <c r="AB10">
-        <v>3810</v>
+        <v>90941</v>
       </c>
       <c r="AC10">
-        <v>2806</v>
+        <v>93855</v>
       </c>
       <c r="AD10">
-        <v>2644</v>
+        <v>138257</v>
       </c>
       <c r="AE10">
-        <v>2175</v>
+        <v>162325</v>
       </c>
       <c r="AF10">
-        <v>1848</v>
+        <v>210754</v>
       </c>
       <c r="AG10">
-        <v>1612</v>
+        <v>234979</v>
       </c>
       <c r="AH10">
-        <v>1489</v>
+        <v>191439</v>
       </c>
       <c r="AI10">
-        <v>432</v>
+        <v>364428</v>
       </c>
       <c r="AJ10">
-        <v>718</v>
+        <v>382268</v>
       </c>
       <c r="AK10">
-        <v>481</v>
+        <v>370346</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
@@ -3083,112 +3074,112 @@
         <v>22.5</v>
       </c>
       <c r="B11">
-        <v>239343</v>
+        <v>1629</v>
       </c>
       <c r="C11">
-        <v>219538</v>
+        <v>1507</v>
       </c>
       <c r="D11">
-        <v>204574</v>
+        <v>2146</v>
       </c>
       <c r="E11">
-        <v>158298</v>
+        <v>2776</v>
       </c>
       <c r="F11">
-        <v>147431</v>
+        <v>2981</v>
       </c>
       <c r="G11">
-        <v>107623</v>
+        <v>3359</v>
       </c>
       <c r="H11">
-        <v>96014</v>
+        <v>5085</v>
       </c>
       <c r="I11">
-        <v>83969</v>
+        <v>6006</v>
       </c>
       <c r="J11">
-        <v>80520</v>
+        <v>5849</v>
       </c>
       <c r="K11">
-        <v>61517</v>
+        <v>6780</v>
       </c>
       <c r="L11">
-        <v>49053</v>
+        <v>7126</v>
       </c>
       <c r="M11">
-        <v>50010</v>
+        <v>8597</v>
       </c>
       <c r="N11">
-        <v>32788</v>
+        <v>10075</v>
       </c>
       <c r="O11">
-        <v>30550</v>
+        <v>11030</v>
       </c>
       <c r="P11">
-        <v>22624</v>
+        <v>11442</v>
       </c>
       <c r="Q11">
-        <v>18202</v>
+        <v>15343</v>
       </c>
       <c r="R11">
-        <v>16305</v>
+        <v>16716</v>
       </c>
       <c r="S11">
-        <v>15619</v>
+        <v>18147</v>
       </c>
       <c r="T11">
-        <v>9749</v>
+        <v>26865</v>
       </c>
       <c r="U11">
-        <v>11561</v>
+        <v>30861</v>
       </c>
       <c r="V11">
-        <v>12131</v>
+        <v>31299</v>
       </c>
       <c r="W11">
-        <v>7804</v>
+        <v>46200</v>
       </c>
       <c r="X11">
-        <v>11086</v>
+        <v>49246</v>
       </c>
       <c r="Y11">
-        <v>6952</v>
+        <v>50549</v>
       </c>
       <c r="Z11">
-        <v>4241</v>
+        <v>70884</v>
       </c>
       <c r="AA11">
-        <v>4397</v>
+        <v>73156</v>
       </c>
       <c r="AB11">
-        <v>3689</v>
+        <v>88699</v>
       </c>
       <c r="AC11">
-        <v>2842</v>
+        <v>93248</v>
       </c>
       <c r="AD11">
-        <v>2521</v>
+        <v>133713</v>
       </c>
       <c r="AE11">
-        <v>1996</v>
+        <v>152266</v>
       </c>
       <c r="AF11">
-        <v>1817</v>
+        <v>209052</v>
       </c>
       <c r="AG11">
-        <v>1576</v>
+        <v>223349</v>
       </c>
       <c r="AH11">
-        <v>1248</v>
+        <v>182867</v>
       </c>
       <c r="AI11">
-        <v>432</v>
+        <v>363616</v>
       </c>
       <c r="AJ11">
-        <v>1010</v>
+        <v>364949</v>
       </c>
       <c r="AK11">
-        <v>490</v>
+        <v>362492</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
@@ -3196,112 +3187,112 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>242083</v>
+        <v>1622</v>
       </c>
       <c r="C12">
-        <v>222104</v>
+        <v>1340</v>
       </c>
       <c r="D12">
-        <v>203096</v>
+        <v>2081</v>
       </c>
       <c r="E12">
-        <v>161455</v>
+        <v>2879</v>
       </c>
       <c r="F12">
-        <v>138874</v>
+        <v>2909</v>
       </c>
       <c r="G12">
-        <v>107032</v>
+        <v>3362</v>
       </c>
       <c r="H12">
-        <v>96598</v>
+        <v>5022</v>
       </c>
       <c r="I12">
-        <v>83239</v>
+        <v>5980</v>
       </c>
       <c r="J12">
-        <v>79077</v>
+        <v>5652</v>
       </c>
       <c r="K12">
-        <v>63049</v>
+        <v>6598</v>
       </c>
       <c r="L12">
-        <v>48435</v>
+        <v>7331</v>
       </c>
       <c r="M12">
-        <v>49203</v>
+        <v>8533</v>
       </c>
       <c r="N12">
-        <v>32152</v>
+        <v>9443</v>
       </c>
       <c r="O12">
-        <v>29428</v>
+        <v>10926</v>
       </c>
       <c r="P12">
-        <v>22538</v>
+        <v>11211</v>
       </c>
       <c r="Q12">
-        <v>18379</v>
+        <v>14511</v>
       </c>
       <c r="R12">
-        <v>16438</v>
+        <v>16733</v>
       </c>
       <c r="S12">
-        <v>15998</v>
+        <v>18093</v>
       </c>
       <c r="T12">
-        <v>9528</v>
+        <v>26926</v>
       </c>
       <c r="U12">
-        <v>11491</v>
+        <v>30341</v>
       </c>
       <c r="V12">
-        <v>12001</v>
+        <v>30443</v>
       </c>
       <c r="W12">
-        <v>7741</v>
+        <v>45737</v>
       </c>
       <c r="X12">
-        <v>10864</v>
+        <v>48491</v>
       </c>
       <c r="Y12">
-        <v>7462</v>
+        <v>48626</v>
       </c>
       <c r="Z12">
-        <v>4021</v>
+        <v>69579</v>
       </c>
       <c r="AA12">
-        <v>3866</v>
+        <v>69937</v>
       </c>
       <c r="AB12">
-        <v>3928</v>
+        <v>87735</v>
       </c>
       <c r="AC12">
-        <v>2868</v>
+        <v>90151</v>
       </c>
       <c r="AD12">
-        <v>2789</v>
+        <v>129626</v>
       </c>
       <c r="AE12">
-        <v>2156</v>
+        <v>153390</v>
       </c>
       <c r="AF12">
-        <v>1583</v>
+        <v>210163</v>
       </c>
       <c r="AG12">
-        <v>1627</v>
+        <v>226288</v>
       </c>
       <c r="AH12">
-        <v>1364</v>
+        <v>175898</v>
       </c>
       <c r="AI12">
-        <v>381</v>
+        <v>348369</v>
       </c>
       <c r="AJ12">
-        <v>833</v>
+        <v>353000</v>
       </c>
       <c r="AK12">
-        <v>500</v>
+        <v>370204</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.45">
@@ -3309,112 +3300,112 @@
         <v>27.5</v>
       </c>
       <c r="B13">
-        <v>232133</v>
+        <v>1565</v>
       </c>
       <c r="C13">
-        <v>214882</v>
+        <v>1370</v>
       </c>
       <c r="D13">
-        <v>206536</v>
+        <v>1967</v>
       </c>
       <c r="E13">
-        <v>157229</v>
+        <v>2557</v>
       </c>
       <c r="F13">
-        <v>140689</v>
+        <v>3121</v>
       </c>
       <c r="G13">
-        <v>109146</v>
+        <v>3598</v>
       </c>
       <c r="H13">
-        <v>96124</v>
+        <v>5176</v>
       </c>
       <c r="I13">
-        <v>83136</v>
+        <v>5589</v>
       </c>
       <c r="J13">
-        <v>80030</v>
+        <v>5776</v>
       </c>
       <c r="K13">
-        <v>62627</v>
+        <v>6901</v>
       </c>
       <c r="L13">
-        <v>47896</v>
+        <v>7270</v>
       </c>
       <c r="M13">
-        <v>50580</v>
+        <v>8467</v>
       </c>
       <c r="N13">
-        <v>32009</v>
+        <v>9836</v>
       </c>
       <c r="O13">
-        <v>29745</v>
+        <v>10826</v>
       </c>
       <c r="P13">
-        <v>21479</v>
+        <v>10944</v>
       </c>
       <c r="Q13">
-        <v>18384</v>
+        <v>14394</v>
       </c>
       <c r="R13">
-        <v>16784</v>
+        <v>15489</v>
       </c>
       <c r="S13">
-        <v>16206</v>
+        <v>17437</v>
       </c>
       <c r="T13">
-        <v>9766</v>
+        <v>25687</v>
       </c>
       <c r="U13">
-        <v>11427</v>
+        <v>30610</v>
       </c>
       <c r="V13">
-        <v>12181</v>
+        <v>30857</v>
       </c>
       <c r="W13">
-        <v>7960</v>
+        <v>46093</v>
       </c>
       <c r="X13">
-        <v>10878</v>
+        <v>48362</v>
       </c>
       <c r="Y13">
-        <v>7123</v>
+        <v>48547</v>
       </c>
       <c r="Z13">
-        <v>4027</v>
+        <v>68559</v>
       </c>
       <c r="AA13">
-        <v>4031</v>
+        <v>70862</v>
       </c>
       <c r="AB13">
-        <v>4000</v>
+        <v>86142</v>
       </c>
       <c r="AC13">
-        <v>2712</v>
+        <v>91061</v>
       </c>
       <c r="AD13">
-        <v>2554</v>
+        <v>130001</v>
       </c>
       <c r="AE13">
-        <v>2031</v>
+        <v>151342</v>
       </c>
       <c r="AF13">
-        <v>1656</v>
+        <v>209679</v>
       </c>
       <c r="AG13">
-        <v>1523</v>
+        <v>212797</v>
       </c>
       <c r="AH13">
-        <v>1387</v>
+        <v>175509</v>
       </c>
       <c r="AI13">
-        <v>419</v>
+        <v>353287</v>
       </c>
       <c r="AJ13">
-        <v>761</v>
+        <v>350804</v>
       </c>
       <c r="AK13">
-        <v>509</v>
+        <v>348859</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.45">
@@ -3422,112 +3413,112 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>234965</v>
+        <v>1568</v>
       </c>
       <c r="C14">
-        <v>207468</v>
+        <v>1519</v>
       </c>
       <c r="D14">
-        <v>202770</v>
+        <v>1811</v>
       </c>
       <c r="E14">
-        <v>156572</v>
+        <v>2581</v>
       </c>
       <c r="F14">
-        <v>137147</v>
+        <v>2650</v>
       </c>
       <c r="G14">
-        <v>106216</v>
+        <v>3057</v>
       </c>
       <c r="H14">
-        <v>95893</v>
+        <v>4990</v>
       </c>
       <c r="I14">
-        <v>82120</v>
+        <v>5471</v>
       </c>
       <c r="J14">
-        <v>81214</v>
+        <v>5770</v>
       </c>
       <c r="K14">
-        <v>62876</v>
+        <v>6677</v>
       </c>
       <c r="L14">
-        <v>48831</v>
+        <v>7310</v>
       </c>
       <c r="M14">
-        <v>49063</v>
+        <v>8053</v>
       </c>
       <c r="N14">
-        <v>32241</v>
+        <v>8990</v>
       </c>
       <c r="O14">
-        <v>29852</v>
+        <v>10455</v>
       </c>
       <c r="P14">
-        <v>22494</v>
+        <v>10551</v>
       </c>
       <c r="Q14">
-        <v>18242</v>
+        <v>14384</v>
       </c>
       <c r="R14">
-        <v>16241</v>
+        <v>15823</v>
       </c>
       <c r="S14">
-        <v>15993</v>
+        <v>17832</v>
       </c>
       <c r="T14">
-        <v>9910</v>
+        <v>26352</v>
       </c>
       <c r="U14">
-        <v>10807</v>
+        <v>28856</v>
       </c>
       <c r="V14">
-        <v>11974</v>
+        <v>30343</v>
       </c>
       <c r="W14">
-        <v>7469</v>
+        <v>43852</v>
       </c>
       <c r="X14">
-        <v>10536</v>
+        <v>46639</v>
       </c>
       <c r="Y14">
-        <v>7210</v>
+        <v>47006</v>
       </c>
       <c r="Z14">
-        <v>4274</v>
+        <v>67413</v>
       </c>
       <c r="AA14">
-        <v>4012</v>
+        <v>67951</v>
       </c>
       <c r="AB14">
-        <v>3961</v>
+        <v>86119</v>
       </c>
       <c r="AC14">
-        <v>2791</v>
+        <v>90324</v>
       </c>
       <c r="AD14">
-        <v>2500</v>
+        <v>125494</v>
       </c>
       <c r="AE14">
-        <v>2199</v>
+        <v>151622</v>
       </c>
       <c r="AF14">
-        <v>1696</v>
+        <v>201981</v>
       </c>
       <c r="AG14">
-        <v>1624</v>
+        <v>222353</v>
       </c>
       <c r="AH14">
-        <v>1383</v>
+        <v>169619</v>
       </c>
       <c r="AI14">
-        <v>376</v>
+        <v>338367</v>
       </c>
       <c r="AJ14">
-        <v>857</v>
+        <v>334797</v>
       </c>
       <c r="AK14">
-        <v>364</v>
+        <v>350680</v>
       </c>
     </row>
   </sheetData>
@@ -3539,120 +3530,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B136189D-1154-46C6-9BCA-FB210D19ACC9}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection sqref="A1:AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B1">
+        <v>9.765625</v>
+      </c>
+      <c r="C1">
+        <v>9.765625</v>
+      </c>
+      <c r="D1">
+        <v>9.765625</v>
+      </c>
+      <c r="E1">
+        <v>19.53125</v>
+      </c>
+      <c r="F1">
+        <v>19.53125</v>
+      </c>
+      <c r="G1">
+        <v>19.53125</v>
+      </c>
+      <c r="H1">
+        <v>39.0625</v>
+      </c>
+      <c r="I1">
+        <v>39.0625</v>
+      </c>
+      <c r="J1">
+        <v>39.0625</v>
+      </c>
+      <c r="K1">
+        <v>78.125</v>
+      </c>
+      <c r="L1">
+        <v>78.125</v>
+      </c>
+      <c r="M1">
+        <v>78.125</v>
+      </c>
+      <c r="N1">
+        <v>156.25</v>
+      </c>
+      <c r="O1">
+        <v>156.25</v>
+      </c>
+      <c r="P1">
+        <v>156.25</v>
+      </c>
+      <c r="Q1">
+        <v>312.5</v>
+      </c>
+      <c r="R1">
+        <v>312.5</v>
+      </c>
+      <c r="S1">
+        <v>312.5</v>
+      </c>
+      <c r="T1">
+        <v>625</v>
+      </c>
+      <c r="U1">
+        <v>625</v>
+      </c>
+      <c r="V1">
+        <v>625</v>
+      </c>
+      <c r="W1">
+        <v>1250</v>
+      </c>
+      <c r="X1">
+        <v>1250</v>
+      </c>
+      <c r="Y1">
+        <v>1250</v>
+      </c>
+      <c r="Z1">
+        <v>2500</v>
+      </c>
+      <c r="AA1">
+        <v>2500</v>
+      </c>
+      <c r="AB1">
+        <v>2500</v>
+      </c>
+      <c r="AC1">
+        <v>5000</v>
+      </c>
+      <c r="AD1">
+        <v>5000</v>
+      </c>
+      <c r="AE1">
+        <v>5000</v>
+      </c>
+      <c r="AF1">
+        <v>10000</v>
+      </c>
+      <c r="AG1">
+        <v>10000</v>
+      </c>
+      <c r="AH1">
+        <v>10000</v>
+      </c>
+      <c r="AI1">
         <v>20000</v>
       </c>
-      <c r="C1">
+      <c r="AJ1">
         <v>20000</v>
       </c>
-      <c r="D1">
+      <c r="AK1">
         <v>20000</v>
-      </c>
-      <c r="E1">
-        <v>10000</v>
-      </c>
-      <c r="F1">
-        <v>10000</v>
-      </c>
-      <c r="G1">
-        <v>10000</v>
-      </c>
-      <c r="H1">
-        <v>5000</v>
-      </c>
-      <c r="I1">
-        <v>5000</v>
-      </c>
-      <c r="J1">
-        <v>5000</v>
-      </c>
-      <c r="K1">
-        <v>2500</v>
-      </c>
-      <c r="L1">
-        <v>2500</v>
-      </c>
-      <c r="M1">
-        <v>2500</v>
-      </c>
-      <c r="N1">
-        <v>1250</v>
-      </c>
-      <c r="O1">
-        <v>1250</v>
-      </c>
-      <c r="P1">
-        <v>1250</v>
-      </c>
-      <c r="Q1">
-        <v>625</v>
-      </c>
-      <c r="R1">
-        <v>625</v>
-      </c>
-      <c r="S1">
-        <v>625</v>
-      </c>
-      <c r="T1">
-        <v>312.5</v>
-      </c>
-      <c r="U1">
-        <v>312.5</v>
-      </c>
-      <c r="V1">
-        <v>312.5</v>
-      </c>
-      <c r="W1">
-        <v>156.25</v>
-      </c>
-      <c r="X1">
-        <v>156.25</v>
-      </c>
-      <c r="Y1">
-        <v>156.25</v>
-      </c>
-      <c r="Z1">
-        <v>78.125</v>
-      </c>
-      <c r="AA1">
-        <v>78.125</v>
-      </c>
-      <c r="AB1">
-        <v>78.125</v>
-      </c>
-      <c r="AC1">
-        <v>39.0625</v>
-      </c>
-      <c r="AD1">
-        <v>39.0625</v>
-      </c>
-      <c r="AE1">
-        <v>39.0625</v>
-      </c>
-      <c r="AF1">
-        <v>19.53125</v>
-      </c>
-      <c r="AG1">
-        <v>19.53125</v>
-      </c>
-      <c r="AH1">
-        <v>19.53125</v>
-      </c>
-      <c r="AI1">
-        <v>0</v>
-      </c>
-      <c r="AJ1">
-        <v>0</v>
-      </c>
-      <c r="AK1">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.45">
@@ -3660,112 +3651,112 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>126277</v>
+        <v>1850</v>
       </c>
       <c r="C2">
-        <v>124023</v>
+        <v>2012</v>
       </c>
       <c r="D2">
-        <v>133514</v>
+        <v>1690</v>
       </c>
       <c r="E2">
-        <v>102322</v>
+        <v>2884</v>
       </c>
       <c r="F2">
-        <v>95879</v>
+        <v>2423</v>
       </c>
       <c r="G2">
-        <v>92473</v>
+        <v>3443</v>
       </c>
       <c r="H2">
-        <v>76311</v>
+        <v>2569</v>
       </c>
       <c r="I2">
-        <v>66521</v>
+        <v>3526</v>
       </c>
       <c r="J2">
-        <v>79422</v>
+        <v>3422</v>
       </c>
       <c r="K2">
-        <v>34497</v>
+        <v>5000</v>
       </c>
       <c r="L2">
-        <v>26335</v>
+        <v>7514</v>
       </c>
       <c r="M2">
-        <v>41349</v>
+        <v>8013</v>
       </c>
       <c r="N2">
-        <v>26531</v>
+        <v>9806</v>
       </c>
       <c r="O2">
-        <v>24582</v>
+        <v>14731</v>
       </c>
       <c r="P2">
-        <v>35919</v>
+        <v>22680</v>
       </c>
       <c r="Q2">
-        <v>13036</v>
+        <v>22624</v>
       </c>
       <c r="R2">
-        <v>14621</v>
+        <v>29633</v>
       </c>
       <c r="S2">
-        <v>23485</v>
+        <v>39118</v>
       </c>
       <c r="T2">
-        <v>7687</v>
+        <v>62533</v>
       </c>
       <c r="U2">
-        <v>8747</v>
+        <v>87928</v>
       </c>
       <c r="V2">
-        <v>10962</v>
+        <v>78846</v>
       </c>
       <c r="W2">
-        <v>5922</v>
+        <v>104822</v>
       </c>
       <c r="X2">
-        <v>7315</v>
+        <v>173630</v>
       </c>
       <c r="Y2">
-        <v>5101</v>
+        <v>167740</v>
       </c>
       <c r="Z2">
-        <v>2383</v>
+        <v>174136</v>
       </c>
       <c r="AA2">
-        <v>2360</v>
+        <v>337602</v>
       </c>
       <c r="AB2">
-        <v>2534</v>
+        <v>240165</v>
       </c>
       <c r="AC2">
-        <v>1578</v>
+        <v>478074</v>
       </c>
       <c r="AD2">
-        <v>1254</v>
+        <v>535450</v>
       </c>
       <c r="AE2">
-        <v>1329</v>
+        <v>343585</v>
       </c>
       <c r="AF2">
-        <v>1132</v>
+        <v>582167</v>
       </c>
       <c r="AG2">
-        <v>1328</v>
+        <v>546800</v>
       </c>
       <c r="AH2">
-        <v>1484</v>
+        <v>538848</v>
       </c>
       <c r="AI2">
-        <v>1179</v>
+        <v>865474</v>
       </c>
       <c r="AJ2">
-        <v>1139</v>
+        <v>687712</v>
       </c>
       <c r="AK2">
-        <v>1105</v>
+        <v>786265</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -3773,112 +3764,112 @@
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>109459</v>
+        <v>1056</v>
       </c>
       <c r="C3">
-        <v>111976</v>
+        <v>1577</v>
       </c>
       <c r="D3">
-        <v>120615</v>
+        <v>1396</v>
       </c>
       <c r="E3">
-        <v>86768</v>
+        <v>1913</v>
       </c>
       <c r="F3">
-        <v>90970</v>
+        <v>1766</v>
       </c>
       <c r="G3">
-        <v>79702</v>
+        <v>2992</v>
       </c>
       <c r="H3">
-        <v>66900</v>
+        <v>1715</v>
       </c>
       <c r="I3">
-        <v>59148</v>
+        <v>2680</v>
       </c>
       <c r="J3">
-        <v>64024</v>
+        <v>2331</v>
       </c>
       <c r="K3">
-        <v>28780</v>
+        <v>4143</v>
       </c>
       <c r="L3">
-        <v>24692</v>
+        <v>6851</v>
       </c>
       <c r="M3">
-        <v>32822</v>
+        <v>6591</v>
       </c>
       <c r="N3">
-        <v>22818</v>
+        <v>8872</v>
       </c>
       <c r="O3">
-        <v>19345</v>
+        <v>12716</v>
       </c>
       <c r="P3">
-        <v>29830</v>
+        <v>18202</v>
       </c>
       <c r="Q3">
-        <v>11169</v>
+        <v>23122</v>
       </c>
       <c r="R3">
-        <v>12062</v>
+        <v>30050</v>
       </c>
       <c r="S3">
-        <v>22388</v>
+        <v>40868</v>
       </c>
       <c r="T3">
-        <v>12206</v>
+        <v>56249</v>
       </c>
       <c r="U3">
-        <v>8434</v>
+        <v>81421</v>
       </c>
       <c r="V3">
-        <v>8402</v>
+        <v>71194</v>
       </c>
       <c r="W3">
-        <v>5510</v>
+        <v>99162</v>
       </c>
       <c r="X3">
-        <v>6523</v>
+        <v>148877</v>
       </c>
       <c r="Y3">
-        <v>4130</v>
+        <v>147833</v>
       </c>
       <c r="Z3">
-        <v>1768</v>
+        <v>179209</v>
       </c>
       <c r="AA3">
-        <v>1821</v>
+        <v>287436</v>
       </c>
       <c r="AB3">
-        <v>2339</v>
+        <v>219108</v>
       </c>
       <c r="AC3">
-        <v>1103</v>
+        <v>424653</v>
       </c>
       <c r="AD3">
-        <v>1083</v>
+        <v>412802</v>
       </c>
       <c r="AE3">
-        <v>1191</v>
+        <v>309579</v>
       </c>
       <c r="AF3">
-        <v>841</v>
+        <v>480401</v>
       </c>
       <c r="AG3">
-        <v>976</v>
+        <v>440085</v>
       </c>
       <c r="AH3">
-        <v>1060</v>
+        <v>452593</v>
       </c>
       <c r="AI3">
-        <v>1034</v>
+        <v>755436</v>
       </c>
       <c r="AJ3">
-        <v>860</v>
+        <v>578925</v>
       </c>
       <c r="AK3">
-        <v>937</v>
+        <v>726337</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -3886,112 +3877,112 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>94640</v>
+        <v>1079</v>
       </c>
       <c r="C4">
-        <v>100041</v>
+        <v>1344</v>
       </c>
       <c r="D4">
-        <v>97908</v>
+        <v>1072</v>
       </c>
       <c r="E4">
-        <v>77746</v>
+        <v>1561</v>
       </c>
       <c r="F4">
-        <v>82578</v>
+        <v>1707</v>
       </c>
       <c r="G4">
-        <v>73602</v>
+        <v>2738</v>
       </c>
       <c r="H4">
-        <v>58308</v>
+        <v>1451</v>
       </c>
       <c r="I4">
-        <v>53085</v>
+        <v>2687</v>
       </c>
       <c r="J4">
-        <v>53652</v>
+        <v>2236</v>
       </c>
       <c r="K4">
-        <v>24697</v>
+        <v>3667</v>
       </c>
       <c r="L4">
-        <v>23019</v>
+        <v>7160</v>
       </c>
       <c r="M4">
-        <v>26531</v>
+        <v>6630</v>
       </c>
       <c r="N4">
-        <v>19793</v>
+        <v>8618</v>
       </c>
       <c r="O4">
-        <v>17176</v>
+        <v>11893</v>
       </c>
       <c r="P4">
-        <v>25415</v>
+        <v>15625</v>
       </c>
       <c r="Q4">
-        <v>9647</v>
+        <v>32751</v>
       </c>
       <c r="R4">
-        <v>11100</v>
+        <v>29576</v>
       </c>
       <c r="S4">
-        <v>19668</v>
+        <v>42367</v>
       </c>
       <c r="T4">
-        <v>11098</v>
+        <v>55599</v>
       </c>
       <c r="U4">
-        <v>7562</v>
+        <v>75235</v>
       </c>
       <c r="V4">
-        <v>7529</v>
+        <v>64150</v>
       </c>
       <c r="W4">
-        <v>5231</v>
+        <v>96096</v>
       </c>
       <c r="X4">
-        <v>6128</v>
+        <v>133780</v>
       </c>
       <c r="Y4">
-        <v>3456</v>
+        <v>139319</v>
       </c>
       <c r="Z4">
-        <v>1739</v>
+        <v>178359</v>
       </c>
       <c r="AA4">
-        <v>1498</v>
+        <v>264244</v>
       </c>
       <c r="AB4">
-        <v>1917</v>
+        <v>211593</v>
       </c>
       <c r="AC4">
-        <v>992</v>
+        <v>387338</v>
       </c>
       <c r="AD4">
-        <v>896</v>
+        <v>362230</v>
       </c>
       <c r="AE4">
-        <v>932</v>
+        <v>294813</v>
       </c>
       <c r="AF4">
-        <v>622</v>
+        <v>422757</v>
       </c>
       <c r="AG4">
-        <v>815</v>
+        <v>382485</v>
       </c>
       <c r="AH4">
-        <v>851</v>
+        <v>412568</v>
       </c>
       <c r="AI4">
-        <v>860</v>
+        <v>688195</v>
       </c>
       <c r="AJ4">
-        <v>654</v>
+        <v>515589</v>
       </c>
       <c r="AK4">
-        <v>724</v>
+        <v>646165</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -3999,112 +3990,112 @@
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>87606</v>
+        <v>949</v>
       </c>
       <c r="C5">
-        <v>92330</v>
+        <v>1214</v>
       </c>
       <c r="D5">
-        <v>88363</v>
+        <v>968</v>
       </c>
       <c r="E5">
-        <v>70954</v>
+        <v>1467</v>
       </c>
       <c r="F5">
-        <v>78498</v>
+        <v>1506</v>
       </c>
       <c r="G5">
-        <v>67854</v>
+        <v>2590</v>
       </c>
       <c r="H5">
-        <v>51178</v>
+        <v>1276</v>
       </c>
       <c r="I5">
-        <v>48011</v>
+        <v>2463</v>
       </c>
       <c r="J5">
-        <v>47117</v>
+        <v>2227</v>
       </c>
       <c r="K5">
-        <v>22770</v>
+        <v>3806</v>
       </c>
       <c r="L5">
-        <v>21253</v>
+        <v>6793</v>
       </c>
       <c r="M5">
-        <v>22793</v>
+        <v>5871</v>
       </c>
       <c r="N5">
-        <v>17351</v>
+        <v>8849</v>
       </c>
       <c r="O5">
-        <v>14774</v>
+        <v>11307</v>
       </c>
       <c r="P5">
-        <v>22075</v>
+        <v>14642</v>
       </c>
       <c r="Q5">
-        <v>9445</v>
+        <v>31584</v>
       </c>
       <c r="R5">
-        <v>9526</v>
+        <v>29296</v>
       </c>
       <c r="S5">
-        <v>17337</v>
+        <v>43034</v>
       </c>
       <c r="T5">
-        <v>11216</v>
+        <v>52727</v>
       </c>
       <c r="U5">
-        <v>7018</v>
+        <v>70562</v>
       </c>
       <c r="V5">
-        <v>6647</v>
+        <v>60123</v>
       </c>
       <c r="W5">
-        <v>5035</v>
+        <v>92561</v>
       </c>
       <c r="X5">
-        <v>5582</v>
+        <v>119293</v>
       </c>
       <c r="Y5">
-        <v>3039</v>
+        <v>134272</v>
       </c>
       <c r="Z5">
-        <v>1696</v>
+        <v>181534</v>
       </c>
       <c r="AA5">
-        <v>1357</v>
+        <v>243886</v>
       </c>
       <c r="AB5">
-        <v>1585</v>
+        <v>191599</v>
       </c>
       <c r="AC5">
-        <v>865</v>
+        <v>360105</v>
       </c>
       <c r="AD5">
-        <v>762</v>
+        <v>326112</v>
       </c>
       <c r="AE5">
-        <v>880</v>
+        <v>283745</v>
       </c>
       <c r="AF5">
-        <v>556</v>
+        <v>381309</v>
       </c>
       <c r="AG5">
-        <v>623</v>
+        <v>348464</v>
       </c>
       <c r="AH5">
-        <v>763</v>
+        <v>379873</v>
       </c>
       <c r="AI5">
-        <v>713</v>
+        <v>651565</v>
       </c>
       <c r="AJ5">
-        <v>671</v>
+        <v>467739</v>
       </c>
       <c r="AK5">
-        <v>665</v>
+        <v>626835</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
@@ -4112,112 +4103,112 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>84292</v>
+        <v>901</v>
       </c>
       <c r="C6">
-        <v>90456</v>
+        <v>1307</v>
       </c>
       <c r="D6">
-        <v>81950</v>
+        <v>1045</v>
       </c>
       <c r="E6">
-        <v>71152</v>
+        <v>1250</v>
       </c>
       <c r="F6">
-        <v>73422</v>
+        <v>1620</v>
       </c>
       <c r="G6">
-        <v>64972</v>
+        <v>2462</v>
       </c>
       <c r="H6">
-        <v>47848</v>
+        <v>1349</v>
       </c>
       <c r="I6">
-        <v>45074</v>
+        <v>2542</v>
       </c>
       <c r="J6">
-        <v>42917</v>
+        <v>2200</v>
       </c>
       <c r="K6">
-        <v>21204</v>
+        <v>3535</v>
       </c>
       <c r="L6">
-        <v>19958</v>
+        <v>6891</v>
       </c>
       <c r="M6">
-        <v>21087</v>
+        <v>5951</v>
       </c>
       <c r="N6">
-        <v>16229</v>
+        <v>8915</v>
       </c>
       <c r="O6">
-        <v>13689</v>
+        <v>11071</v>
       </c>
       <c r="P6">
-        <v>20480</v>
+        <v>13482</v>
       </c>
       <c r="Q6">
-        <v>8366</v>
+        <v>30120</v>
       </c>
       <c r="R6">
-        <v>8800</v>
+        <v>28274</v>
       </c>
       <c r="S6">
-        <v>16508</v>
+        <v>43877</v>
       </c>
       <c r="T6">
-        <v>10894</v>
+        <v>49872</v>
       </c>
       <c r="U6">
-        <v>6434</v>
+        <v>68272</v>
       </c>
       <c r="V6">
-        <v>6066</v>
+        <v>55856</v>
       </c>
       <c r="W6">
-        <v>4933</v>
+        <v>90634</v>
       </c>
       <c r="X6">
-        <v>4912</v>
+        <v>113907</v>
       </c>
       <c r="Y6">
-        <v>2803</v>
+        <v>125789</v>
       </c>
       <c r="Z6">
-        <v>1382</v>
+        <v>171521</v>
       </c>
       <c r="AA6">
-        <v>1387</v>
+        <v>231418</v>
       </c>
       <c r="AB6">
-        <v>1643</v>
+        <v>183150</v>
       </c>
       <c r="AC6">
-        <v>784</v>
+        <v>340483</v>
       </c>
       <c r="AD6">
-        <v>749</v>
+        <v>305218</v>
       </c>
       <c r="AE6">
-        <v>732</v>
+        <v>267722</v>
       </c>
       <c r="AF6">
-        <v>557</v>
+        <v>357426</v>
       </c>
       <c r="AG6">
-        <v>531</v>
+        <v>317473</v>
       </c>
       <c r="AH6">
-        <v>795</v>
+        <v>361316</v>
       </c>
       <c r="AI6">
-        <v>785</v>
+        <v>619128</v>
       </c>
       <c r="AJ6">
-        <v>564</v>
+        <v>427101</v>
       </c>
       <c r="AK6">
-        <v>594</v>
+        <v>606505</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
@@ -4225,112 +4216,112 @@
         <v>12.5</v>
       </c>
       <c r="B7">
-        <v>83749</v>
+        <v>744</v>
       </c>
       <c r="C7">
-        <v>86279</v>
+        <v>889</v>
       </c>
       <c r="D7">
-        <v>79150</v>
+        <v>842</v>
       </c>
       <c r="E7">
-        <v>67983</v>
+        <v>1249</v>
       </c>
       <c r="F7">
-        <v>70229</v>
+        <v>1244</v>
       </c>
       <c r="G7">
-        <v>60358</v>
+        <v>2658</v>
       </c>
       <c r="H7">
-        <v>44690</v>
+        <v>1138</v>
       </c>
       <c r="I7">
-        <v>42518</v>
+        <v>2508</v>
       </c>
       <c r="J7">
-        <v>42956</v>
+        <v>2019</v>
       </c>
       <c r="K7">
-        <v>19054</v>
+        <v>3280</v>
       </c>
       <c r="L7">
-        <v>20339</v>
+        <v>6139</v>
       </c>
       <c r="M7">
-        <v>19521</v>
+        <v>5361</v>
       </c>
       <c r="N7">
-        <v>15190</v>
+        <v>7787</v>
       </c>
       <c r="O7">
-        <v>13011</v>
+        <v>10653</v>
       </c>
       <c r="P7">
-        <v>19401</v>
+        <v>12620</v>
       </c>
       <c r="Q7">
-        <v>8349</v>
+        <v>28418</v>
       </c>
       <c r="R7">
-        <v>8630</v>
+        <v>26929</v>
       </c>
       <c r="S7">
-        <v>15445</v>
+        <v>45055</v>
       </c>
       <c r="T7">
-        <v>9294</v>
+        <v>46082</v>
       </c>
       <c r="U7">
-        <v>6166</v>
+        <v>64310</v>
       </c>
       <c r="V7">
-        <v>5430</v>
+        <v>59238</v>
       </c>
       <c r="W7">
-        <v>4773</v>
+        <v>85413</v>
       </c>
       <c r="X7">
-        <v>4559</v>
+        <v>106842</v>
       </c>
       <c r="Y7">
-        <v>2678</v>
+        <v>112476</v>
       </c>
       <c r="Z7">
-        <v>1229</v>
+        <v>176275</v>
       </c>
       <c r="AA7">
-        <v>1145</v>
+        <v>211939</v>
       </c>
       <c r="AB7">
-        <v>1389</v>
+        <v>170522</v>
       </c>
       <c r="AC7">
-        <v>665</v>
+        <v>318698</v>
       </c>
       <c r="AD7">
-        <v>601</v>
+        <v>282490</v>
       </c>
       <c r="AE7">
-        <v>716</v>
+        <v>253455</v>
       </c>
       <c r="AF7">
-        <v>511</v>
+        <v>316060</v>
       </c>
       <c r="AG7">
-        <v>462</v>
+        <v>288252</v>
       </c>
       <c r="AH7">
-        <v>730</v>
+        <v>316825</v>
       </c>
       <c r="AI7">
-        <v>714</v>
+        <v>565705</v>
       </c>
       <c r="AJ7">
-        <v>476</v>
+        <v>401802</v>
       </c>
       <c r="AK7">
-        <v>466</v>
+        <v>566588</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.45">
@@ -4338,112 +4329,112 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>82168</v>
+        <v>730</v>
       </c>
       <c r="C8">
-        <v>82345</v>
+        <v>837</v>
       </c>
       <c r="D8">
-        <v>74284</v>
+        <v>835</v>
       </c>
       <c r="E8">
-        <v>65781</v>
+        <v>1181</v>
       </c>
       <c r="F8">
-        <v>66735</v>
+        <v>1314</v>
       </c>
       <c r="G8">
-        <v>58264</v>
+        <v>2472</v>
       </c>
       <c r="H8">
-        <v>42421</v>
+        <v>1087</v>
       </c>
       <c r="I8">
-        <v>43516</v>
+        <v>2104</v>
       </c>
       <c r="J8">
-        <v>39418</v>
+        <v>1738</v>
       </c>
       <c r="K8">
-        <v>18879</v>
+        <v>3264</v>
       </c>
       <c r="L8">
-        <v>18812</v>
+        <v>5934</v>
       </c>
       <c r="M8">
-        <v>18566</v>
+        <v>5237</v>
       </c>
       <c r="N8">
-        <v>13743</v>
+        <v>7963</v>
       </c>
       <c r="O8">
-        <v>12505</v>
+        <v>9920</v>
       </c>
       <c r="P8">
-        <v>18459</v>
+        <v>12103</v>
       </c>
       <c r="Q8">
-        <v>8102</v>
+        <v>27478</v>
       </c>
       <c r="R8">
-        <v>8137</v>
+        <v>25948</v>
       </c>
       <c r="S8">
-        <v>15200</v>
+        <v>43464</v>
       </c>
       <c r="T8">
-        <v>8884</v>
+        <v>43887</v>
       </c>
       <c r="U8">
-        <v>5924</v>
+        <v>59494</v>
       </c>
       <c r="V8">
-        <v>5574</v>
+        <v>55070</v>
       </c>
       <c r="W8">
-        <v>4798</v>
+        <v>84019</v>
       </c>
       <c r="X8">
-        <v>4634</v>
+        <v>101834</v>
       </c>
       <c r="Y8">
-        <v>2641</v>
+        <v>107949</v>
       </c>
       <c r="Z8">
-        <v>1427</v>
+        <v>162401</v>
       </c>
       <c r="AA8">
-        <v>1077</v>
+        <v>201934</v>
       </c>
       <c r="AB8">
-        <v>1317</v>
+        <v>161430</v>
       </c>
       <c r="AC8">
-        <v>559</v>
+        <v>304699</v>
       </c>
       <c r="AD8">
-        <v>576</v>
+        <v>255219</v>
       </c>
       <c r="AE8">
-        <v>538</v>
+        <v>239452</v>
       </c>
       <c r="AF8">
-        <v>279</v>
+        <v>297340</v>
       </c>
       <c r="AG8">
-        <v>466</v>
+        <v>274725</v>
       </c>
       <c r="AH8">
-        <v>464</v>
+        <v>298760</v>
       </c>
       <c r="AI8">
-        <v>616</v>
+        <v>535126</v>
       </c>
       <c r="AJ8">
-        <v>484</v>
+        <v>374482</v>
       </c>
       <c r="AK8">
-        <v>474</v>
+        <v>550776</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.45">
@@ -4451,112 +4442,112 @@
         <v>17.5</v>
       </c>
       <c r="B9">
-        <v>80160</v>
+        <v>646</v>
       </c>
       <c r="C9">
-        <v>81209</v>
+        <v>881</v>
       </c>
       <c r="D9">
-        <v>75643</v>
+        <v>829</v>
       </c>
       <c r="E9">
-        <v>66097</v>
+        <v>1104</v>
       </c>
       <c r="F9">
-        <v>65054</v>
+        <v>963</v>
       </c>
       <c r="G9">
-        <v>57855</v>
+        <v>2337</v>
       </c>
       <c r="H9">
-        <v>42835</v>
+        <v>1178</v>
       </c>
       <c r="I9">
-        <v>42239</v>
+        <v>2028</v>
       </c>
       <c r="J9">
-        <v>39133</v>
+        <v>1643</v>
       </c>
       <c r="K9">
-        <v>18186</v>
+        <v>2997</v>
       </c>
       <c r="L9">
-        <v>18552</v>
+        <v>6231</v>
       </c>
       <c r="M9">
-        <v>18810</v>
+        <v>4965</v>
       </c>
       <c r="N9">
-        <v>14012</v>
+        <v>7672</v>
       </c>
       <c r="O9">
-        <v>12266</v>
+        <v>9488</v>
       </c>
       <c r="P9">
-        <v>17243</v>
+        <v>11442</v>
       </c>
       <c r="Q9">
-        <v>7301</v>
+        <v>26683</v>
       </c>
       <c r="R9">
-        <v>7490</v>
+        <v>25242</v>
       </c>
       <c r="S9">
-        <v>14275</v>
+        <v>42170</v>
       </c>
       <c r="T9">
-        <v>8003</v>
+        <v>50123</v>
       </c>
       <c r="U9">
-        <v>5951</v>
+        <v>57438</v>
       </c>
       <c r="V9">
-        <v>5063</v>
+        <v>52906</v>
       </c>
       <c r="W9">
-        <v>4752</v>
+        <v>81066</v>
       </c>
       <c r="X9">
-        <v>4073</v>
+        <v>96892</v>
       </c>
       <c r="Y9">
-        <v>2172</v>
+        <v>103808</v>
       </c>
       <c r="Z9">
-        <v>1319</v>
+        <v>158937</v>
       </c>
       <c r="AA9">
-        <v>885</v>
+        <v>193984</v>
       </c>
       <c r="AB9">
-        <v>1197</v>
+        <v>156820</v>
       </c>
       <c r="AC9">
-        <v>622</v>
+        <v>288283</v>
       </c>
       <c r="AD9">
-        <v>523</v>
+        <v>240685</v>
       </c>
       <c r="AE9">
-        <v>538</v>
+        <v>227395</v>
       </c>
       <c r="AF9">
-        <v>517</v>
+        <v>286666</v>
       </c>
       <c r="AG9">
-        <v>438</v>
+        <v>261196</v>
       </c>
       <c r="AH9">
-        <v>497</v>
+        <v>283408</v>
       </c>
       <c r="AI9">
-        <v>558</v>
+        <v>524317</v>
       </c>
       <c r="AJ9">
-        <v>426</v>
+        <v>361846</v>
       </c>
       <c r="AK9">
-        <v>419</v>
+        <v>514732</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
@@ -4564,112 +4555,112 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>78989</v>
+        <v>596</v>
       </c>
       <c r="C10">
-        <v>79271</v>
+        <v>751</v>
       </c>
       <c r="D10">
-        <v>76224</v>
+        <v>841</v>
       </c>
       <c r="E10">
-        <v>66135</v>
+        <v>1118</v>
       </c>
       <c r="F10">
-        <v>64866</v>
+        <v>1172</v>
       </c>
       <c r="G10">
-        <v>55852</v>
+        <v>2273</v>
       </c>
       <c r="H10">
-        <v>42544</v>
+        <v>1032</v>
       </c>
       <c r="I10">
-        <v>40306</v>
+        <v>1911</v>
       </c>
       <c r="J10">
-        <v>37444</v>
+        <v>1755</v>
       </c>
       <c r="K10">
-        <v>18491</v>
+        <v>3292</v>
       </c>
       <c r="L10">
-        <v>18526</v>
+        <v>5785</v>
       </c>
       <c r="M10">
-        <v>18158</v>
+        <v>4857</v>
       </c>
       <c r="N10">
-        <v>12140</v>
+        <v>7182</v>
       </c>
       <c r="O10">
-        <v>11210</v>
+        <v>9720</v>
       </c>
       <c r="P10">
-        <v>17129</v>
+        <v>11230</v>
       </c>
       <c r="Q10">
-        <v>7000</v>
+        <v>25995</v>
       </c>
       <c r="R10">
-        <v>7444</v>
+        <v>24265</v>
       </c>
       <c r="S10">
-        <v>14177</v>
+        <v>40991</v>
       </c>
       <c r="T10">
-        <v>8086</v>
+        <v>52566</v>
       </c>
       <c r="U10">
-        <v>5682</v>
+        <v>57004</v>
       </c>
       <c r="V10">
-        <v>4996</v>
+        <v>50170</v>
       </c>
       <c r="W10">
-        <v>4658</v>
+        <v>79640</v>
       </c>
       <c r="X10">
-        <v>3985</v>
+        <v>94544</v>
       </c>
       <c r="Y10">
-        <v>2294</v>
+        <v>99675</v>
       </c>
       <c r="Z10">
-        <v>1343</v>
+        <v>153108</v>
       </c>
       <c r="AA10">
-        <v>1004</v>
+        <v>186830</v>
       </c>
       <c r="AB10">
-        <v>1117</v>
+        <v>156934</v>
       </c>
       <c r="AC10">
-        <v>675</v>
+        <v>290180</v>
       </c>
       <c r="AD10">
-        <v>567</v>
+        <v>232777</v>
       </c>
       <c r="AE10">
-        <v>550</v>
+        <v>219001</v>
       </c>
       <c r="AF10">
-        <v>355</v>
+        <v>301495</v>
       </c>
       <c r="AG10">
-        <v>551</v>
+        <v>246515</v>
       </c>
       <c r="AH10">
-        <v>488</v>
+        <v>278305</v>
       </c>
       <c r="AI10">
-        <v>593</v>
+        <v>506292</v>
       </c>
       <c r="AJ10">
-        <v>431</v>
+        <v>346685</v>
       </c>
       <c r="AK10">
-        <v>407</v>
+        <v>479158</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
@@ -4677,112 +4668,112 @@
         <v>22.5</v>
       </c>
       <c r="B11">
-        <v>76874</v>
+        <v>715</v>
       </c>
       <c r="C11">
-        <v>77195</v>
+        <v>905</v>
       </c>
       <c r="D11">
-        <v>78207</v>
+        <v>790</v>
       </c>
       <c r="E11">
-        <v>67181</v>
+        <v>952</v>
       </c>
       <c r="F11">
-        <v>63343</v>
+        <v>1069</v>
       </c>
       <c r="G11">
-        <v>55030</v>
+        <v>2264</v>
       </c>
       <c r="H11">
-        <v>41299</v>
+        <v>1011</v>
       </c>
       <c r="I11">
-        <v>40278</v>
+        <v>1878</v>
       </c>
       <c r="J11">
-        <v>36565</v>
+        <v>1744</v>
       </c>
       <c r="K11">
-        <v>17921</v>
+        <v>2908</v>
       </c>
       <c r="L11">
-        <v>17657</v>
+        <v>5636</v>
       </c>
       <c r="M11">
-        <v>18307</v>
+        <v>4828</v>
       </c>
       <c r="N11">
-        <v>12722</v>
+        <v>8015</v>
       </c>
       <c r="O11">
-        <v>11445</v>
+        <v>8776</v>
       </c>
       <c r="P11">
-        <v>16257</v>
+        <v>10944</v>
       </c>
       <c r="Q11">
-        <v>6872</v>
+        <v>25823</v>
       </c>
       <c r="R11">
-        <v>7474</v>
+        <v>24517</v>
       </c>
       <c r="S11">
-        <v>13703</v>
+        <v>38639</v>
       </c>
       <c r="T11">
-        <v>7794</v>
+        <v>50314</v>
       </c>
       <c r="U11">
-        <v>5435</v>
+        <v>55913</v>
       </c>
       <c r="V11">
-        <v>4901</v>
+        <v>50084</v>
       </c>
       <c r="W11">
-        <v>4656</v>
+        <v>77556</v>
       </c>
       <c r="X11">
-        <v>3894</v>
+        <v>91855</v>
       </c>
       <c r="Y11">
-        <v>2174</v>
+        <v>97714</v>
       </c>
       <c r="Z11">
-        <v>1348</v>
+        <v>156636</v>
       </c>
       <c r="AA11">
-        <v>921</v>
+        <v>180162</v>
       </c>
       <c r="AB11">
-        <v>1049</v>
+        <v>147687</v>
       </c>
       <c r="AC11">
-        <v>505</v>
+        <v>283484</v>
       </c>
       <c r="AD11">
-        <v>570</v>
+        <v>224658</v>
       </c>
       <c r="AE11">
-        <v>406</v>
+        <v>216502</v>
       </c>
       <c r="AF11">
-        <v>379</v>
+        <v>359804</v>
       </c>
       <c r="AG11">
-        <v>483</v>
+        <v>250892</v>
       </c>
       <c r="AH11">
-        <v>515</v>
+        <v>259475</v>
       </c>
       <c r="AI11">
-        <v>549</v>
+        <v>498970</v>
       </c>
       <c r="AJ11">
-        <v>427</v>
+        <v>337419</v>
       </c>
       <c r="AK11">
-        <v>411</v>
+        <v>449550</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
@@ -4790,112 +4781,112 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>77271</v>
+        <v>668</v>
       </c>
       <c r="C12">
-        <v>77139</v>
+        <v>781</v>
       </c>
       <c r="D12">
-        <v>79486</v>
+        <v>767</v>
       </c>
       <c r="E12">
-        <v>66549</v>
+        <v>859</v>
       </c>
       <c r="F12">
-        <v>61447</v>
+        <v>1080</v>
       </c>
       <c r="G12">
-        <v>53480</v>
+        <v>2075</v>
       </c>
       <c r="H12">
-        <v>41573</v>
+        <v>1127</v>
       </c>
       <c r="I12">
-        <v>38407</v>
+        <v>1921</v>
       </c>
       <c r="J12">
-        <v>36166</v>
+        <v>1666</v>
       </c>
       <c r="K12">
-        <v>17947</v>
+        <v>2981</v>
       </c>
       <c r="L12">
-        <v>17201</v>
+        <v>5693</v>
       </c>
       <c r="M12">
-        <v>18452</v>
+        <v>4527</v>
       </c>
       <c r="N12">
-        <v>12412</v>
+        <v>7856</v>
       </c>
       <c r="O12">
-        <v>11930</v>
+        <v>8725</v>
       </c>
       <c r="P12">
-        <v>15422</v>
+        <v>10353</v>
       </c>
       <c r="Q12">
-        <v>6408</v>
+        <v>25177</v>
       </c>
       <c r="R12">
-        <v>7154</v>
+        <v>23400</v>
       </c>
       <c r="S12">
-        <v>13317</v>
+        <v>38520</v>
       </c>
       <c r="T12">
-        <v>6714</v>
+        <v>48472</v>
       </c>
       <c r="U12">
-        <v>5087</v>
+        <v>54081</v>
       </c>
       <c r="V12">
-        <v>4566</v>
+        <v>47970</v>
       </c>
       <c r="W12">
-        <v>4677</v>
+        <v>75887</v>
       </c>
       <c r="X12">
-        <v>3766</v>
+        <v>89937</v>
       </c>
       <c r="Y12">
-        <v>2143</v>
+        <v>93718</v>
       </c>
       <c r="Z12">
-        <v>1200</v>
+        <v>143229</v>
       </c>
       <c r="AA12">
-        <v>918</v>
+        <v>176161</v>
       </c>
       <c r="AB12">
-        <v>880</v>
+        <v>142007</v>
       </c>
       <c r="AC12">
-        <v>557</v>
+        <v>281203</v>
       </c>
       <c r="AD12">
-        <v>332</v>
+        <v>209537</v>
       </c>
       <c r="AE12">
-        <v>421</v>
+        <v>204695</v>
       </c>
       <c r="AF12">
-        <v>334</v>
+        <v>393864</v>
       </c>
       <c r="AG12">
-        <v>435</v>
+        <v>248591</v>
       </c>
       <c r="AH12">
-        <v>403</v>
+        <v>246499</v>
       </c>
       <c r="AI12">
-        <v>531</v>
+        <v>490650</v>
       </c>
       <c r="AJ12">
-        <v>436</v>
+        <v>321510</v>
       </c>
       <c r="AK12">
-        <v>351</v>
+        <v>417639</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.45">
@@ -4903,112 +4894,112 @@
         <v>27.5</v>
       </c>
       <c r="B13">
-        <v>76112</v>
+        <v>598</v>
       </c>
       <c r="C13">
-        <v>76064</v>
+        <v>629</v>
       </c>
       <c r="D13">
-        <v>78906</v>
+        <v>796</v>
       </c>
       <c r="E13">
-        <v>65473</v>
+        <v>981</v>
       </c>
       <c r="F13">
-        <v>61513</v>
+        <v>966</v>
       </c>
       <c r="G13">
-        <v>53114</v>
+        <v>2068</v>
       </c>
       <c r="H13">
-        <v>41023</v>
+        <v>1136</v>
       </c>
       <c r="I13">
-        <v>36648</v>
+        <v>2138</v>
       </c>
       <c r="J13">
-        <v>35426</v>
+        <v>1606</v>
       </c>
       <c r="K13">
-        <v>18114</v>
+        <v>2905</v>
       </c>
       <c r="L13">
-        <v>17385</v>
+        <v>5291</v>
       </c>
       <c r="M13">
-        <v>18234</v>
+        <v>4115</v>
       </c>
       <c r="N13">
-        <v>12258</v>
+        <v>7330</v>
       </c>
       <c r="O13">
-        <v>12152</v>
+        <v>9045</v>
       </c>
       <c r="P13">
-        <v>15330</v>
+        <v>10443</v>
       </c>
       <c r="Q13">
-        <v>6067</v>
+        <v>23929</v>
       </c>
       <c r="R13">
-        <v>7324</v>
+        <v>23762</v>
       </c>
       <c r="S13">
-        <v>13406</v>
+        <v>37151</v>
       </c>
       <c r="T13">
-        <v>6717</v>
+        <v>48632</v>
       </c>
       <c r="U13">
-        <v>5268</v>
+        <v>53184</v>
       </c>
       <c r="V13">
-        <v>4746</v>
+        <v>46370</v>
       </c>
       <c r="W13">
-        <v>4868</v>
+        <v>74342</v>
       </c>
       <c r="X13">
-        <v>3827</v>
+        <v>86827</v>
       </c>
       <c r="Y13">
-        <v>2757</v>
+        <v>93035</v>
       </c>
       <c r="Z13">
-        <v>1338</v>
+        <v>142634</v>
       </c>
       <c r="AA13">
-        <v>812</v>
+        <v>170478</v>
       </c>
       <c r="AB13">
-        <v>1060</v>
+        <v>133718</v>
       </c>
       <c r="AC13">
-        <v>498</v>
+        <v>264552</v>
       </c>
       <c r="AD13">
-        <v>506</v>
+        <v>207871</v>
       </c>
       <c r="AE13">
-        <v>393</v>
+        <v>201959</v>
       </c>
       <c r="AF13">
-        <v>260</v>
+        <v>387547</v>
       </c>
       <c r="AG13">
-        <v>409</v>
+        <v>231811</v>
       </c>
       <c r="AH13">
-        <v>367</v>
+        <v>241244</v>
       </c>
       <c r="AI13">
-        <v>410</v>
+        <v>469468</v>
       </c>
       <c r="AJ13">
-        <v>434</v>
+        <v>307012</v>
       </c>
       <c r="AK13">
-        <v>431</v>
+        <v>387678</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.45">
@@ -5016,112 +5007,112 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>75514</v>
+        <v>639</v>
       </c>
       <c r="C14">
-        <v>76557</v>
+        <v>821</v>
       </c>
       <c r="D14">
-        <v>78085</v>
+        <v>661</v>
       </c>
       <c r="E14">
-        <v>63846</v>
+        <v>922</v>
       </c>
       <c r="F14">
-        <v>61381</v>
+        <v>975</v>
       </c>
       <c r="G14">
-        <v>52463</v>
+        <v>1924</v>
       </c>
       <c r="H14">
-        <v>44478</v>
+        <v>1023</v>
       </c>
       <c r="I14">
-        <v>37647</v>
+        <v>1846</v>
       </c>
       <c r="J14">
-        <v>35252</v>
+        <v>1415</v>
       </c>
       <c r="K14">
-        <v>17768</v>
+        <v>2639</v>
       </c>
       <c r="L14">
-        <v>17280</v>
+        <v>5580</v>
       </c>
       <c r="M14">
-        <v>17868</v>
+        <v>4294</v>
       </c>
       <c r="N14">
-        <v>12491</v>
+        <v>7521</v>
       </c>
       <c r="O14">
-        <v>11889</v>
+        <v>8627</v>
       </c>
       <c r="P14">
-        <v>14700</v>
+        <v>10397</v>
       </c>
       <c r="Q14">
-        <v>6183</v>
+        <v>23763</v>
       </c>
       <c r="R14">
-        <v>7394</v>
+        <v>23575</v>
       </c>
       <c r="S14">
-        <v>12372</v>
+        <v>36778</v>
       </c>
       <c r="T14">
-        <v>6420</v>
+        <v>47109</v>
       </c>
       <c r="U14">
-        <v>4996</v>
+        <v>51508</v>
       </c>
       <c r="V14">
-        <v>4493</v>
+        <v>46502</v>
       </c>
       <c r="W14">
-        <v>4724</v>
+        <v>72219</v>
       </c>
       <c r="X14">
-        <v>3405</v>
+        <v>85308</v>
       </c>
       <c r="Y14">
-        <v>2892</v>
+        <v>90475</v>
       </c>
       <c r="Z14">
-        <v>1170</v>
+        <v>142994</v>
       </c>
       <c r="AA14">
-        <v>825</v>
+        <v>164587</v>
       </c>
       <c r="AB14">
-        <v>944</v>
+        <v>140851</v>
       </c>
       <c r="AC14">
-        <v>599</v>
+        <v>257195</v>
       </c>
       <c r="AD14">
-        <v>451</v>
+        <v>193864</v>
       </c>
       <c r="AE14">
-        <v>376</v>
+        <v>191859</v>
       </c>
       <c r="AF14">
-        <v>339</v>
+        <v>371902</v>
       </c>
       <c r="AG14">
-        <v>332</v>
+        <v>232390</v>
       </c>
       <c r="AH14">
-        <v>364</v>
+        <v>234785</v>
       </c>
       <c r="AI14">
-        <v>406</v>
+        <v>447674</v>
       </c>
       <c r="AJ14">
-        <v>365</v>
+        <v>301192</v>
       </c>
       <c r="AK14">
-        <v>333</v>
+        <v>358469</v>
       </c>
     </row>
   </sheetData>
@@ -5133,7 +5124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF55D72E-8E48-4ED8-B045-B472C7E99BCB}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:AK14"/>
     </sheetView>
   </sheetViews>
@@ -5141,112 +5132,112 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B1">
+        <v>9.765625</v>
+      </c>
+      <c r="C1">
+        <v>9.765625</v>
+      </c>
+      <c r="D1">
+        <v>9.765625</v>
+      </c>
+      <c r="E1">
+        <v>19.53125</v>
+      </c>
+      <c r="F1">
+        <v>19.53125</v>
+      </c>
+      <c r="G1">
+        <v>19.53125</v>
+      </c>
+      <c r="H1">
+        <v>39.0625</v>
+      </c>
+      <c r="I1">
+        <v>39.0625</v>
+      </c>
+      <c r="J1">
+        <v>39.0625</v>
+      </c>
+      <c r="K1">
+        <v>78.125</v>
+      </c>
+      <c r="L1">
+        <v>78.125</v>
+      </c>
+      <c r="M1">
+        <v>78.125</v>
+      </c>
+      <c r="N1">
+        <v>156.25</v>
+      </c>
+      <c r="O1">
+        <v>156.25</v>
+      </c>
+      <c r="P1">
+        <v>156.25</v>
+      </c>
+      <c r="Q1">
+        <v>312.5</v>
+      </c>
+      <c r="R1">
+        <v>312.5</v>
+      </c>
+      <c r="S1">
+        <v>312.5</v>
+      </c>
+      <c r="T1">
+        <v>625</v>
+      </c>
+      <c r="U1">
+        <v>625</v>
+      </c>
+      <c r="V1">
+        <v>625</v>
+      </c>
+      <c r="W1">
+        <v>1250</v>
+      </c>
+      <c r="X1">
+        <v>1250</v>
+      </c>
+      <c r="Y1">
+        <v>1250</v>
+      </c>
+      <c r="Z1">
+        <v>2500</v>
+      </c>
+      <c r="AA1">
+        <v>2500</v>
+      </c>
+      <c r="AB1">
+        <v>2500</v>
+      </c>
+      <c r="AC1">
+        <v>5000</v>
+      </c>
+      <c r="AD1">
+        <v>5000</v>
+      </c>
+      <c r="AE1">
+        <v>5000</v>
+      </c>
+      <c r="AF1">
+        <v>10000</v>
+      </c>
+      <c r="AG1">
+        <v>10000</v>
+      </c>
+      <c r="AH1">
+        <v>10000</v>
+      </c>
+      <c r="AI1">
         <v>20000</v>
       </c>
-      <c r="C1">
+      <c r="AJ1">
         <v>20000</v>
       </c>
-      <c r="D1">
+      <c r="AK1">
         <v>20000</v>
-      </c>
-      <c r="E1">
-        <v>10000</v>
-      </c>
-      <c r="F1">
-        <v>10000</v>
-      </c>
-      <c r="G1">
-        <v>10000</v>
-      </c>
-      <c r="H1">
-        <v>5000</v>
-      </c>
-      <c r="I1">
-        <v>5000</v>
-      </c>
-      <c r="J1">
-        <v>5000</v>
-      </c>
-      <c r="K1">
-        <v>2500</v>
-      </c>
-      <c r="L1">
-        <v>2500</v>
-      </c>
-      <c r="M1">
-        <v>2500</v>
-      </c>
-      <c r="N1">
-        <v>1250</v>
-      </c>
-      <c r="O1">
-        <v>1250</v>
-      </c>
-      <c r="P1">
-        <v>1250</v>
-      </c>
-      <c r="Q1">
-        <v>625</v>
-      </c>
-      <c r="R1">
-        <v>625</v>
-      </c>
-      <c r="S1">
-        <v>625</v>
-      </c>
-      <c r="T1">
-        <v>312.5</v>
-      </c>
-      <c r="U1">
-        <v>312.5</v>
-      </c>
-      <c r="V1">
-        <v>312.5</v>
-      </c>
-      <c r="W1">
-        <v>156.25</v>
-      </c>
-      <c r="X1">
-        <v>156.25</v>
-      </c>
-      <c r="Y1">
-        <v>156.25</v>
-      </c>
-      <c r="Z1">
-        <v>78.125</v>
-      </c>
-      <c r="AA1">
-        <v>78.125</v>
-      </c>
-      <c r="AB1">
-        <v>78.125</v>
-      </c>
-      <c r="AC1">
-        <v>39.0625</v>
-      </c>
-      <c r="AD1">
-        <v>39.0625</v>
-      </c>
-      <c r="AE1">
-        <v>39.0625</v>
-      </c>
-      <c r="AF1">
-        <v>19.53125</v>
-      </c>
-      <c r="AG1">
-        <v>19.53125</v>
-      </c>
-      <c r="AH1">
-        <v>19.53125</v>
-      </c>
-      <c r="AI1">
-        <v>0</v>
-      </c>
-      <c r="AJ1">
-        <v>0</v>
-      </c>
-      <c r="AK1">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.45">
@@ -5254,112 +5245,112 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>126277</v>
+        <v>1801</v>
       </c>
       <c r="C2">
-        <v>124023</v>
+        <v>1884</v>
       </c>
       <c r="D2">
-        <v>133514</v>
+        <v>2395</v>
       </c>
       <c r="E2">
-        <v>102322</v>
+        <v>2580</v>
       </c>
       <c r="F2">
-        <v>95879</v>
+        <v>2411</v>
       </c>
       <c r="G2">
-        <v>92473</v>
+        <v>3095</v>
       </c>
       <c r="H2">
-        <v>76311</v>
+        <v>3666</v>
       </c>
       <c r="I2">
-        <v>66521</v>
+        <v>2932</v>
       </c>
       <c r="J2">
-        <v>79422</v>
+        <v>3289</v>
       </c>
       <c r="K2">
-        <v>34497</v>
+        <v>4436</v>
       </c>
       <c r="L2">
-        <v>26335</v>
+        <v>3422</v>
       </c>
       <c r="M2">
-        <v>41349</v>
+        <v>3583</v>
       </c>
       <c r="N2">
-        <v>26531</v>
+        <v>5721</v>
       </c>
       <c r="O2">
-        <v>24582</v>
+        <v>4850</v>
       </c>
       <c r="P2">
-        <v>35919</v>
+        <v>4721</v>
       </c>
       <c r="Q2">
-        <v>13036</v>
+        <v>8806</v>
       </c>
       <c r="R2">
-        <v>14621</v>
+        <v>8486</v>
       </c>
       <c r="S2">
-        <v>23485</v>
+        <v>7130</v>
       </c>
       <c r="T2">
-        <v>7687</v>
+        <v>14560</v>
       </c>
       <c r="U2">
-        <v>8747</v>
+        <v>14078</v>
       </c>
       <c r="V2">
-        <v>10962</v>
+        <v>13221</v>
       </c>
       <c r="W2">
-        <v>5922</v>
+        <v>27647</v>
       </c>
       <c r="X2">
-        <v>7315</v>
+        <v>39418</v>
       </c>
       <c r="Y2">
-        <v>5101</v>
+        <v>37220</v>
       </c>
       <c r="Z2">
-        <v>2383</v>
+        <v>47006</v>
       </c>
       <c r="AA2">
-        <v>2360</v>
+        <v>64897</v>
       </c>
       <c r="AB2">
-        <v>2534</v>
+        <v>73440</v>
       </c>
       <c r="AC2">
-        <v>1578</v>
+        <v>101039</v>
       </c>
       <c r="AD2">
-        <v>1254</v>
+        <v>150552</v>
       </c>
       <c r="AE2">
-        <v>1329</v>
+        <v>130364</v>
       </c>
       <c r="AF2">
-        <v>1132</v>
+        <v>190246</v>
       </c>
       <c r="AG2">
-        <v>1328</v>
+        <v>222559</v>
       </c>
       <c r="AH2">
-        <v>1484</v>
+        <v>260955</v>
       </c>
       <c r="AI2">
-        <v>1179</v>
+        <v>386506</v>
       </c>
       <c r="AJ2">
-        <v>1139</v>
+        <v>337892</v>
       </c>
       <c r="AK2">
-        <v>1105</v>
+        <v>476138</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.45">
@@ -5367,112 +5358,112 @@
         <v>2.5</v>
       </c>
       <c r="B3">
-        <v>109459</v>
+        <v>1401</v>
       </c>
       <c r="C3">
-        <v>111976</v>
+        <v>1724</v>
       </c>
       <c r="D3">
-        <v>120615</v>
+        <v>1723</v>
       </c>
       <c r="E3">
-        <v>86768</v>
+        <v>1971</v>
       </c>
       <c r="F3">
-        <v>90970</v>
+        <v>2048</v>
       </c>
       <c r="G3">
-        <v>79702</v>
+        <v>2296</v>
       </c>
       <c r="H3">
-        <v>66900</v>
+        <v>2838</v>
       </c>
       <c r="I3">
-        <v>59148</v>
+        <v>2957</v>
       </c>
       <c r="J3">
-        <v>64024</v>
+        <v>2309</v>
       </c>
       <c r="K3">
-        <v>28780</v>
+        <v>3730</v>
       </c>
       <c r="L3">
-        <v>24692</v>
+        <v>2785</v>
       </c>
       <c r="M3">
-        <v>32822</v>
+        <v>3038</v>
       </c>
       <c r="N3">
-        <v>22818</v>
+        <v>5653</v>
       </c>
       <c r="O3">
-        <v>19345</v>
+        <v>4340</v>
       </c>
       <c r="P3">
-        <v>29830</v>
+        <v>3831</v>
       </c>
       <c r="Q3">
-        <v>11169</v>
+        <v>8672</v>
       </c>
       <c r="R3">
-        <v>12062</v>
+        <v>7339</v>
       </c>
       <c r="S3">
-        <v>22388</v>
+        <v>6794</v>
       </c>
       <c r="T3">
-        <v>12206</v>
+        <v>15549</v>
       </c>
       <c r="U3">
-        <v>8434</v>
+        <v>14562</v>
       </c>
       <c r="V3">
-        <v>8402</v>
+        <v>13292</v>
       </c>
       <c r="W3">
-        <v>5510</v>
+        <v>26990</v>
       </c>
       <c r="X3">
-        <v>6523</v>
+        <v>34386</v>
       </c>
       <c r="Y3">
-        <v>4130</v>
+        <v>30538</v>
       </c>
       <c r="Z3">
-        <v>1768</v>
+        <v>47493</v>
       </c>
       <c r="AA3">
-        <v>1821</v>
+        <v>53627</v>
       </c>
       <c r="AB3">
-        <v>2339</v>
+        <v>72007</v>
       </c>
       <c r="AC3">
-        <v>1103</v>
+        <v>90126</v>
       </c>
       <c r="AD3">
-        <v>1083</v>
+        <v>134881</v>
       </c>
       <c r="AE3">
-        <v>1191</v>
+        <v>110692</v>
       </c>
       <c r="AF3">
-        <v>841</v>
+        <v>175159</v>
       </c>
       <c r="AG3">
-        <v>976</v>
+        <v>200594</v>
       </c>
       <c r="AH3">
-        <v>1060</v>
+        <v>242304</v>
       </c>
       <c r="AI3">
-        <v>1034</v>
+        <v>357095</v>
       </c>
       <c r="AJ3">
-        <v>860</v>
+        <v>326617</v>
       </c>
       <c r="AK3">
-        <v>937</v>
+        <v>420093</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
@@ -5480,112 +5471,112 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>94640</v>
+        <v>1273</v>
       </c>
       <c r="C4">
-        <v>100041</v>
+        <v>1383</v>
       </c>
       <c r="D4">
-        <v>97908</v>
+        <v>1393</v>
       </c>
       <c r="E4">
-        <v>77746</v>
+        <v>1628</v>
       </c>
       <c r="F4">
-        <v>82578</v>
+        <v>1729</v>
       </c>
       <c r="G4">
-        <v>73602</v>
+        <v>2031</v>
       </c>
       <c r="H4">
-        <v>58308</v>
+        <v>2528</v>
       </c>
       <c r="I4">
-        <v>53085</v>
+        <v>2255</v>
       </c>
       <c r="J4">
-        <v>53652</v>
+        <v>2433</v>
       </c>
       <c r="K4">
-        <v>24697</v>
+        <v>3841</v>
       </c>
       <c r="L4">
-        <v>23019</v>
+        <v>2610</v>
       </c>
       <c r="M4">
-        <v>26531</v>
+        <v>3190</v>
       </c>
       <c r="N4">
-        <v>19793</v>
+        <v>5248</v>
       </c>
       <c r="O4">
-        <v>17176</v>
+        <v>3848</v>
       </c>
       <c r="P4">
-        <v>25415</v>
+        <v>3910</v>
       </c>
       <c r="Q4">
-        <v>9647</v>
+        <v>8648</v>
       </c>
       <c r="R4">
-        <v>11100</v>
+        <v>7163</v>
       </c>
       <c r="S4">
-        <v>19668</v>
+        <v>6484</v>
       </c>
       <c r="T4">
-        <v>11098</v>
+        <v>16500</v>
       </c>
       <c r="U4">
-        <v>7562</v>
+        <v>14625</v>
       </c>
       <c r="V4">
-        <v>7529</v>
+        <v>13803</v>
       </c>
       <c r="W4">
-        <v>5231</v>
+        <v>28883</v>
       </c>
       <c r="X4">
-        <v>6128</v>
+        <v>31824</v>
       </c>
       <c r="Y4">
-        <v>3456</v>
+        <v>27331</v>
       </c>
       <c r="Z4">
-        <v>1739</v>
+        <v>46920</v>
       </c>
       <c r="AA4">
-        <v>1498</v>
+        <v>47878</v>
       </c>
       <c r="AB4">
-        <v>1917</v>
+        <v>72240</v>
       </c>
       <c r="AC4">
-        <v>992</v>
+        <v>80863</v>
       </c>
       <c r="AD4">
-        <v>896</v>
+        <v>128596</v>
       </c>
       <c r="AE4">
-        <v>932</v>
+        <v>101699</v>
       </c>
       <c r="AF4">
-        <v>622</v>
+        <v>183142</v>
       </c>
       <c r="AG4">
-        <v>815</v>
+        <v>183105</v>
       </c>
       <c r="AH4">
-        <v>851</v>
+        <v>231438</v>
       </c>
       <c r="AI4">
-        <v>860</v>
+        <v>339462</v>
       </c>
       <c r="AJ4">
-        <v>654</v>
+        <v>312206</v>
       </c>
       <c r="AK4">
-        <v>724</v>
+        <v>377085</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
@@ -5593,112 +5584,112 @@
         <v>7.5</v>
       </c>
       <c r="B5">
-        <v>87606</v>
+        <v>1074</v>
       </c>
       <c r="C5">
-        <v>92330</v>
+        <v>1357</v>
       </c>
       <c r="D5">
-        <v>88363</v>
+        <v>1332</v>
       </c>
       <c r="E5">
-        <v>70954</v>
+        <v>1550</v>
       </c>
       <c r="F5">
-        <v>78498</v>
+        <v>1480</v>
       </c>
       <c r="G5">
-        <v>67854</v>
+        <v>1687</v>
       </c>
       <c r="H5">
-        <v>51178</v>
+        <v>2567</v>
       </c>
       <c r="I5">
-        <v>48011</v>
+        <v>2224</v>
       </c>
       <c r="J5">
-        <v>47117</v>
+        <v>1972</v>
       </c>
       <c r="K5">
-        <v>22770</v>
+        <v>3649</v>
       </c>
       <c r="L5">
-        <v>21253</v>
+        <v>2136</v>
       </c>
       <c r="M5">
-        <v>22793</v>
+        <v>2796</v>
       </c>
       <c r="N5">
-        <v>17351</v>
+        <v>5297</v>
       </c>
       <c r="O5">
-        <v>14774</v>
+        <v>3595</v>
       </c>
       <c r="P5">
-        <v>22075</v>
+        <v>3515</v>
       </c>
       <c r="Q5">
-        <v>9445</v>
+        <v>8746</v>
       </c>
       <c r="R5">
-        <v>9526</v>
+        <v>6666</v>
       </c>
       <c r="S5">
-        <v>17337</v>
+        <v>6641</v>
       </c>
       <c r="T5">
-        <v>11216</v>
+        <v>17636</v>
       </c>
       <c r="U5">
-        <v>7018</v>
+        <v>14376</v>
       </c>
       <c r="V5">
-        <v>6647</v>
+        <v>13378</v>
       </c>
       <c r="W5">
-        <v>5035</v>
+        <v>29638</v>
       </c>
       <c r="X5">
-        <v>5582</v>
+        <v>30747</v>
       </c>
       <c r="Y5">
-        <v>3039</v>
+        <v>25634</v>
       </c>
       <c r="Z5">
-        <v>1696</v>
+        <v>46183</v>
       </c>
       <c r="AA5">
-        <v>1357</v>
+        <v>44365</v>
       </c>
       <c r="AB5">
-        <v>1585</v>
+        <v>72838</v>
       </c>
       <c r="AC5">
-        <v>865</v>
+        <v>77708</v>
       </c>
       <c r="AD5">
-        <v>762</v>
+        <v>117745</v>
       </c>
       <c r="AE5">
-        <v>880</v>
+        <v>100534</v>
       </c>
       <c r="AF5">
-        <v>556</v>
+        <v>163234</v>
       </c>
       <c r="AG5">
-        <v>623</v>
+        <v>171764</v>
       </c>
       <c r="AH5">
-        <v>763</v>
+        <v>224659</v>
       </c>
       <c r="AI5">
-        <v>713</v>
+        <v>319214</v>
       </c>
       <c r="AJ5">
-        <v>671</v>
+        <v>290909</v>
       </c>
       <c r="AK5">
-        <v>665</v>
+        <v>362355</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
@@ -5706,112 +5697,112 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>84292</v>
+        <v>1063</v>
       </c>
       <c r="C6">
-        <v>90456</v>
+        <v>1224</v>
       </c>
       <c r="D6">
-        <v>81950</v>
+        <v>1310</v>
       </c>
       <c r="E6">
-        <v>71152</v>
+        <v>1360</v>
       </c>
       <c r="F6">
-        <v>73422</v>
+        <v>1529</v>
       </c>
       <c r="G6">
-        <v>64972</v>
+        <v>1562</v>
       </c>
       <c r="H6">
-        <v>47848</v>
+        <v>2516</v>
       </c>
       <c r="I6">
-        <v>45074</v>
+        <v>1996</v>
       </c>
       <c r="J6">
-        <v>42917</v>
+        <v>1647</v>
       </c>
       <c r="K6">
-        <v>21204</v>
+        <v>3757</v>
       </c>
       <c r="L6">
-        <v>19958</v>
+        <v>2139</v>
       </c>
       <c r="M6">
-        <v>21087</v>
+        <v>2515</v>
       </c>
       <c r="N6">
-        <v>16229</v>
+        <v>5202</v>
       </c>
       <c r="O6">
-        <v>13689</v>
+        <v>3069</v>
       </c>
       <c r="P6">
-        <v>20480</v>
+        <v>3088</v>
       </c>
       <c r="Q6">
-        <v>8366</v>
+        <v>8119</v>
       </c>
       <c r="R6">
-        <v>8800</v>
+        <v>6225</v>
       </c>
       <c r="S6">
-        <v>16508</v>
+        <v>6206</v>
       </c>
       <c r="T6">
-        <v>10894</v>
+        <v>17947</v>
       </c>
       <c r="U6">
-        <v>6434</v>
+        <v>13640</v>
       </c>
       <c r="V6">
-        <v>6066</v>
+        <v>13363</v>
       </c>
       <c r="W6">
-        <v>4933</v>
+        <v>30632</v>
       </c>
       <c r="X6">
-        <v>4912</v>
+        <v>30305</v>
       </c>
       <c r="Y6">
-        <v>2803</v>
+        <v>23954</v>
       </c>
       <c r="Z6">
-        <v>1382</v>
+        <v>45389</v>
       </c>
       <c r="AA6">
-        <v>1387</v>
+        <v>42327</v>
       </c>
       <c r="AB6">
-        <v>1643</v>
+        <v>71679</v>
       </c>
       <c r="AC6">
-        <v>784</v>
+        <v>71137</v>
       </c>
       <c r="AD6">
-        <v>749</v>
+        <v>117058</v>
       </c>
       <c r="AE6">
-        <v>732</v>
+        <v>98627</v>
       </c>
       <c r="AF6">
-        <v>557</v>
+        <v>163854</v>
       </c>
       <c r="AG6">
-        <v>531</v>
+        <v>168733</v>
       </c>
       <c r="AH6">
-        <v>795</v>
+        <v>217087</v>
       </c>
       <c r="AI6">
-        <v>785</v>
+        <v>301511</v>
       </c>
       <c r="AJ6">
-        <v>564</v>
+        <v>280554</v>
       </c>
       <c r="AK6">
-        <v>594</v>
+        <v>326452</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
@@ -5819,112 +5810,112 @@
         <v>12.5</v>
       </c>
       <c r="B7">
-        <v>83749</v>
+        <v>980</v>
       </c>
       <c r="C7">
-        <v>86279</v>
+        <v>1023</v>
       </c>
       <c r="D7">
-        <v>79150</v>
+        <v>1237</v>
       </c>
       <c r="E7">
-        <v>67983</v>
+        <v>1351</v>
       </c>
       <c r="F7">
-        <v>70229</v>
+        <v>1239</v>
       </c>
       <c r="G7">
-        <v>60358</v>
+        <v>1559</v>
       </c>
       <c r="H7">
-        <v>44690</v>
+        <v>2007</v>
       </c>
       <c r="I7">
-        <v>42518</v>
+        <v>1838</v>
       </c>
       <c r="J7">
-        <v>42956</v>
+        <v>1641</v>
       </c>
       <c r="K7">
-        <v>19054</v>
+        <v>2947</v>
       </c>
       <c r="L7">
-        <v>20339</v>
+        <v>1863</v>
       </c>
       <c r="M7">
-        <v>19521</v>
+        <v>2259</v>
       </c>
       <c r="N7">
-        <v>15190</v>
+        <v>4636</v>
       </c>
       <c r="O7">
-        <v>13011</v>
+        <v>2743</v>
       </c>
       <c r="P7">
-        <v>19401</v>
+        <v>3034</v>
       </c>
       <c r="Q7">
-        <v>8349</v>
+        <v>8166</v>
       </c>
       <c r="R7">
-        <v>8630</v>
+        <v>5295</v>
       </c>
       <c r="S7">
-        <v>15445</v>
+        <v>5824</v>
       </c>
       <c r="T7">
-        <v>9294</v>
+        <v>17137</v>
       </c>
       <c r="U7">
-        <v>6166</v>
+        <v>12578</v>
       </c>
       <c r="V7">
-        <v>5430</v>
+        <v>13056</v>
       </c>
       <c r="W7">
-        <v>4773</v>
+        <v>30209</v>
       </c>
       <c r="X7">
-        <v>4559</v>
+        <v>30628</v>
       </c>
       <c r="Y7">
-        <v>2678</v>
+        <v>21692</v>
       </c>
       <c r="Z7">
-        <v>1229</v>
+        <v>41678</v>
       </c>
       <c r="AA7">
-        <v>1145</v>
+        <v>38746</v>
       </c>
       <c r="AB7">
-        <v>1389</v>
+        <v>69506</v>
       </c>
       <c r="AC7">
-        <v>665</v>
+        <v>66700</v>
       </c>
       <c r="AD7">
-        <v>601</v>
+        <v>102838</v>
       </c>
       <c r="AE7">
-        <v>716</v>
+        <v>93807</v>
       </c>
       <c r="AF7">
-        <v>511</v>
+        <v>152851</v>
       </c>
       <c r="AG7">
-        <v>462</v>
+        <v>156715</v>
       </c>
       <c r="AH7">
-        <v>730</v>
+        <v>195512</v>
       </c>
       <c r="AI7">
-        <v>714</v>
+        <v>278222</v>
       </c>
       <c r="AJ7">
-        <v>476</v>
+        <v>257113</v>
       </c>
       <c r="AK7">
-        <v>466</v>
+        <v>305176</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.45">
@@ -5932,112 +5923,112 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>82168</v>
+        <v>804</v>
       </c>
       <c r="C8">
-        <v>82345</v>
+        <v>1020</v>
       </c>
       <c r="D8">
-        <v>74284</v>
+        <v>1213</v>
       </c>
       <c r="E8">
-        <v>65781</v>
+        <v>1403</v>
       </c>
       <c r="F8">
-        <v>66735</v>
+        <v>1222</v>
       </c>
       <c r="G8">
-        <v>58264</v>
+        <v>1337</v>
       </c>
       <c r="H8">
-        <v>42421</v>
+        <v>1738</v>
       </c>
       <c r="I8">
-        <v>43516</v>
+        <v>1686</v>
       </c>
       <c r="J8">
-        <v>39418</v>
+        <v>1643</v>
       </c>
       <c r="K8">
-        <v>18879</v>
+        <v>2988</v>
       </c>
       <c r="L8">
-        <v>18812</v>
+        <v>1776</v>
       </c>
       <c r="M8">
-        <v>18566</v>
+        <v>2122</v>
       </c>
       <c r="N8">
-        <v>13743</v>
+        <v>4334</v>
       </c>
       <c r="O8">
-        <v>12505</v>
+        <v>2749</v>
       </c>
       <c r="P8">
-        <v>18459</v>
+        <v>2884</v>
       </c>
       <c r="Q8">
-        <v>8102</v>
+        <v>7514</v>
       </c>
       <c r="R8">
-        <v>8137</v>
+        <v>5552</v>
       </c>
       <c r="S8">
-        <v>15200</v>
+        <v>6041</v>
       </c>
       <c r="T8">
-        <v>8884</v>
+        <v>17060</v>
       </c>
       <c r="U8">
-        <v>5924</v>
+        <v>12228</v>
       </c>
       <c r="V8">
-        <v>5574</v>
+        <v>12033</v>
       </c>
       <c r="W8">
-        <v>4798</v>
+        <v>30522</v>
       </c>
       <c r="X8">
-        <v>4634</v>
+        <v>31520</v>
       </c>
       <c r="Y8">
-        <v>2641</v>
+        <v>20906</v>
       </c>
       <c r="Z8">
-        <v>1427</v>
+        <v>40091</v>
       </c>
       <c r="AA8">
-        <v>1077</v>
+        <v>36370</v>
       </c>
       <c r="AB8">
-        <v>1317</v>
+        <v>67669</v>
       </c>
       <c r="AC8">
-        <v>559</v>
+        <v>63896</v>
       </c>
       <c r="AD8">
-        <v>576</v>
+        <v>99034</v>
       </c>
       <c r="AE8">
-        <v>538</v>
+        <v>89017</v>
       </c>
       <c r="AF8">
-        <v>279</v>
+        <v>146857</v>
       </c>
       <c r="AG8">
-        <v>466</v>
+        <v>144818</v>
       </c>
       <c r="AH8">
-        <v>464</v>
+        <v>191127</v>
       </c>
       <c r="AI8">
-        <v>616</v>
+        <v>266227</v>
       </c>
       <c r="AJ8">
-        <v>484</v>
+        <v>249127</v>
       </c>
       <c r="AK8">
-        <v>474</v>
+        <v>282385</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.45">
@@ -6045,112 +6036,112 @@
         <v>17.5</v>
       </c>
       <c r="B9">
-        <v>80160</v>
+        <v>804</v>
       </c>
       <c r="C9">
-        <v>81209</v>
+        <v>1000</v>
       </c>
       <c r="D9">
-        <v>75643</v>
+        <v>1045</v>
       </c>
       <c r="E9">
-        <v>66097</v>
+        <v>1155</v>
       </c>
       <c r="F9">
-        <v>65054</v>
+        <v>1213</v>
       </c>
       <c r="G9">
-        <v>57855</v>
+        <v>1260</v>
       </c>
       <c r="H9">
-        <v>42835</v>
+        <v>1823</v>
       </c>
       <c r="I9">
-        <v>42239</v>
+        <v>1550</v>
       </c>
       <c r="J9">
-        <v>39133</v>
+        <v>1365</v>
       </c>
       <c r="K9">
-        <v>18186</v>
+        <v>2996</v>
       </c>
       <c r="L9">
-        <v>18552</v>
+        <v>1827</v>
       </c>
       <c r="M9">
-        <v>18810</v>
+        <v>1880</v>
       </c>
       <c r="N9">
-        <v>14012</v>
+        <v>4651</v>
       </c>
       <c r="O9">
-        <v>12266</v>
+        <v>2883</v>
       </c>
       <c r="P9">
-        <v>17243</v>
+        <v>2801</v>
       </c>
       <c r="Q9">
-        <v>7301</v>
+        <v>7601</v>
       </c>
       <c r="R9">
-        <v>7490</v>
+        <v>5345</v>
       </c>
       <c r="S9">
-        <v>14275</v>
+        <v>5808</v>
       </c>
       <c r="T9">
-        <v>8003</v>
+        <v>16873</v>
       </c>
       <c r="U9">
-        <v>5951</v>
+        <v>11634</v>
       </c>
       <c r="V9">
-        <v>5063</v>
+        <v>12259</v>
       </c>
       <c r="W9">
-        <v>4752</v>
+        <v>30103</v>
       </c>
       <c r="X9">
-        <v>4073</v>
+        <v>30358</v>
       </c>
       <c r="Y9">
-        <v>2172</v>
+        <v>20353</v>
       </c>
       <c r="Z9">
-        <v>1319</v>
+        <v>39284</v>
       </c>
       <c r="AA9">
-        <v>885</v>
+        <v>34724</v>
       </c>
       <c r="AB9">
-        <v>1197</v>
+        <v>67099</v>
       </c>
       <c r="AC9">
-        <v>622</v>
+        <v>60569</v>
       </c>
       <c r="AD9">
-        <v>523</v>
+        <v>95326</v>
       </c>
       <c r="AE9">
-        <v>538</v>
+        <v>88646</v>
       </c>
       <c r="AF9">
-        <v>517</v>
+        <v>138877</v>
       </c>
       <c r="AG9">
-        <v>438</v>
+        <v>141797</v>
       </c>
       <c r="AH9">
-        <v>497</v>
+        <v>182663</v>
       </c>
       <c r="AI9">
-        <v>558</v>
+        <v>252744</v>
       </c>
       <c r="AJ9">
-        <v>426</v>
+        <v>246524</v>
       </c>
       <c r="AK9">
-        <v>419</v>
+        <v>270666</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
@@ -6158,112 +6149,112 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>78989</v>
+        <v>702</v>
       </c>
       <c r="C10">
-        <v>79271</v>
+        <v>777</v>
       </c>
       <c r="D10">
-        <v>76224</v>
+        <v>866</v>
       </c>
       <c r="E10">
-        <v>66135</v>
+        <v>1264</v>
       </c>
       <c r="F10">
-        <v>64866</v>
+        <v>1041</v>
       </c>
       <c r="G10">
-        <v>55852</v>
+        <v>1267</v>
       </c>
       <c r="H10">
-        <v>42544</v>
+        <v>1967</v>
       </c>
       <c r="I10">
-        <v>40306</v>
+        <v>1622</v>
       </c>
       <c r="J10">
-        <v>37444</v>
+        <v>1457</v>
       </c>
       <c r="K10">
-        <v>18491</v>
+        <v>2993</v>
       </c>
       <c r="L10">
-        <v>18526</v>
+        <v>1804</v>
       </c>
       <c r="M10">
-        <v>18158</v>
+        <v>2071</v>
       </c>
       <c r="N10">
-        <v>12140</v>
+        <v>4598</v>
       </c>
       <c r="O10">
-        <v>11210</v>
+        <v>2443</v>
       </c>
       <c r="P10">
-        <v>17129</v>
+        <v>2751</v>
       </c>
       <c r="Q10">
-        <v>7000</v>
+        <v>6956</v>
       </c>
       <c r="R10">
-        <v>7444</v>
+        <v>5076</v>
       </c>
       <c r="S10">
-        <v>14177</v>
+        <v>5559</v>
       </c>
       <c r="T10">
-        <v>8086</v>
+        <v>16242</v>
       </c>
       <c r="U10">
-        <v>5682</v>
+        <v>11452</v>
       </c>
       <c r="V10">
-        <v>4996</v>
+        <v>11632</v>
       </c>
       <c r="W10">
-        <v>4658</v>
+        <v>28865</v>
       </c>
       <c r="X10">
-        <v>3985</v>
+        <v>29750</v>
       </c>
       <c r="Y10">
-        <v>2294</v>
+        <v>19123</v>
       </c>
       <c r="Z10">
-        <v>1343</v>
+        <v>39528</v>
       </c>
       <c r="AA10">
-        <v>1004</v>
+        <v>35651</v>
       </c>
       <c r="AB10">
-        <v>1117</v>
+        <v>67427</v>
       </c>
       <c r="AC10">
-        <v>675</v>
+        <v>59634</v>
       </c>
       <c r="AD10">
-        <v>567</v>
+        <v>93278</v>
       </c>
       <c r="AE10">
-        <v>550</v>
+        <v>89422</v>
       </c>
       <c r="AF10">
-        <v>355</v>
+        <v>134002</v>
       </c>
       <c r="AG10">
-        <v>551</v>
+        <v>134683</v>
       </c>
       <c r="AH10">
-        <v>488</v>
+        <v>182887</v>
       </c>
       <c r="AI10">
-        <v>593</v>
+        <v>248870</v>
       </c>
       <c r="AJ10">
-        <v>431</v>
+        <v>244400</v>
       </c>
       <c r="AK10">
-        <v>407</v>
+        <v>263133</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
@@ -6271,112 +6262,112 @@
         <v>22.5</v>
       </c>
       <c r="B11">
-        <v>76874</v>
+        <v>797</v>
       </c>
       <c r="C11">
-        <v>77195</v>
+        <v>881</v>
       </c>
       <c r="D11">
-        <v>78207</v>
+        <v>783</v>
       </c>
       <c r="E11">
-        <v>67181</v>
+        <v>1088</v>
       </c>
       <c r="F11">
-        <v>63343</v>
+        <v>1195</v>
       </c>
       <c r="G11">
-        <v>55030</v>
+        <v>1441</v>
       </c>
       <c r="H11">
-        <v>41299</v>
+        <v>1546</v>
       </c>
       <c r="I11">
-        <v>40278</v>
+        <v>1516</v>
       </c>
       <c r="J11">
-        <v>36565</v>
+        <v>1538</v>
       </c>
       <c r="K11">
-        <v>17921</v>
+        <v>2423</v>
       </c>
       <c r="L11">
-        <v>17657</v>
+        <v>1708</v>
       </c>
       <c r="M11">
-        <v>18307</v>
+        <v>1947</v>
       </c>
       <c r="N11">
-        <v>12722</v>
+        <v>4443</v>
       </c>
       <c r="O11">
-        <v>11445</v>
+        <v>2478</v>
       </c>
       <c r="P11">
-        <v>16257</v>
+        <v>2719</v>
       </c>
       <c r="Q11">
-        <v>6872</v>
+        <v>6935</v>
       </c>
       <c r="R11">
-        <v>7474</v>
+        <v>5150</v>
       </c>
       <c r="S11">
-        <v>13703</v>
+        <v>5395</v>
       </c>
       <c r="T11">
-        <v>7794</v>
+        <v>16857</v>
       </c>
       <c r="U11">
-        <v>5435</v>
+        <v>11166</v>
       </c>
       <c r="V11">
-        <v>4901</v>
+        <v>10978</v>
       </c>
       <c r="W11">
-        <v>4656</v>
+        <v>28275</v>
       </c>
       <c r="X11">
-        <v>3894</v>
+        <v>29600</v>
       </c>
       <c r="Y11">
-        <v>2174</v>
+        <v>18398</v>
       </c>
       <c r="Z11">
-        <v>1348</v>
+        <v>37876</v>
       </c>
       <c r="AA11">
-        <v>921</v>
+        <v>34692</v>
       </c>
       <c r="AB11">
-        <v>1049</v>
+        <v>65431</v>
       </c>
       <c r="AC11">
-        <v>505</v>
+        <v>57942</v>
       </c>
       <c r="AD11">
-        <v>570</v>
+        <v>92786</v>
       </c>
       <c r="AE11">
-        <v>406</v>
+        <v>87794</v>
       </c>
       <c r="AF11">
-        <v>379</v>
+        <v>127309</v>
       </c>
       <c r="AG11">
-        <v>483</v>
+        <v>134230</v>
       </c>
       <c r="AH11">
-        <v>515</v>
+        <v>176257</v>
       </c>
       <c r="AI11">
-        <v>549</v>
+        <v>237526</v>
       </c>
       <c r="AJ11">
-        <v>427</v>
+        <v>243017</v>
       </c>
       <c r="AK11">
-        <v>411</v>
+        <v>256694</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
@@ -6384,112 +6375,112 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>77271</v>
+        <v>736</v>
       </c>
       <c r="C12">
-        <v>77139</v>
+        <v>940</v>
       </c>
       <c r="D12">
-        <v>79486</v>
+        <v>931</v>
       </c>
       <c r="E12">
-        <v>66549</v>
+        <v>1214</v>
       </c>
       <c r="F12">
-        <v>61447</v>
+        <v>1201</v>
       </c>
       <c r="G12">
-        <v>53480</v>
+        <v>1236</v>
       </c>
       <c r="H12">
-        <v>41573</v>
+        <v>1581</v>
       </c>
       <c r="I12">
-        <v>38407</v>
+        <v>1487</v>
       </c>
       <c r="J12">
-        <v>36166</v>
+        <v>1423</v>
       </c>
       <c r="K12">
-        <v>17947</v>
+        <v>2410</v>
       </c>
       <c r="L12">
-        <v>17201</v>
+        <v>1657</v>
       </c>
       <c r="M12">
-        <v>18452</v>
+        <v>1875</v>
       </c>
       <c r="N12">
-        <v>12412</v>
+        <v>4223</v>
       </c>
       <c r="O12">
-        <v>11930</v>
+        <v>2315</v>
       </c>
       <c r="P12">
-        <v>15422</v>
+        <v>2495</v>
       </c>
       <c r="Q12">
-        <v>6408</v>
+        <v>6385</v>
       </c>
       <c r="R12">
-        <v>7154</v>
+        <v>5011</v>
       </c>
       <c r="S12">
-        <v>13317</v>
+        <v>5390</v>
       </c>
       <c r="T12">
-        <v>6714</v>
+        <v>15929</v>
       </c>
       <c r="U12">
-        <v>5087</v>
+        <v>10986</v>
       </c>
       <c r="V12">
-        <v>4566</v>
+        <v>10797</v>
       </c>
       <c r="W12">
-        <v>4677</v>
+        <v>28294</v>
       </c>
       <c r="X12">
-        <v>3766</v>
+        <v>28606</v>
       </c>
       <c r="Y12">
-        <v>2143</v>
+        <v>18107</v>
       </c>
       <c r="Z12">
-        <v>1200</v>
+        <v>36378</v>
       </c>
       <c r="AA12">
-        <v>918</v>
+        <v>33362</v>
       </c>
       <c r="AB12">
-        <v>880</v>
+        <v>63957</v>
       </c>
       <c r="AC12">
-        <v>557</v>
+        <v>56291</v>
       </c>
       <c r="AD12">
-        <v>332</v>
+        <v>89654</v>
       </c>
       <c r="AE12">
-        <v>421</v>
+        <v>87445</v>
       </c>
       <c r="AF12">
-        <v>334</v>
+        <v>129906</v>
       </c>
       <c r="AG12">
-        <v>435</v>
+        <v>130738</v>
       </c>
       <c r="AH12">
-        <v>403</v>
+        <v>167586</v>
       </c>
       <c r="AI12">
-        <v>531</v>
+        <v>237379</v>
       </c>
       <c r="AJ12">
-        <v>436</v>
+        <v>224044</v>
       </c>
       <c r="AK12">
-        <v>351</v>
+        <v>248360</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.45">
@@ -6497,112 +6488,112 @@
         <v>27.5</v>
       </c>
       <c r="B13">
-        <v>76112</v>
+        <v>673</v>
       </c>
       <c r="C13">
-        <v>76064</v>
+        <v>786</v>
       </c>
       <c r="D13">
-        <v>78906</v>
+        <v>850</v>
       </c>
       <c r="E13">
-        <v>65473</v>
+        <v>1105</v>
       </c>
       <c r="F13">
-        <v>61513</v>
+        <v>1062</v>
       </c>
       <c r="G13">
-        <v>53114</v>
+        <v>1131</v>
       </c>
       <c r="H13">
-        <v>41023</v>
+        <v>1551</v>
       </c>
       <c r="I13">
-        <v>36648</v>
+        <v>1493</v>
       </c>
       <c r="J13">
-        <v>35426</v>
+        <v>1316</v>
       </c>
       <c r="K13">
-        <v>18114</v>
+        <v>2619</v>
       </c>
       <c r="L13">
-        <v>17385</v>
+        <v>1528</v>
       </c>
       <c r="M13">
-        <v>18234</v>
+        <v>1800</v>
       </c>
       <c r="N13">
-        <v>12258</v>
+        <v>3923</v>
       </c>
       <c r="O13">
-        <v>12152</v>
+        <v>2266</v>
       </c>
       <c r="P13">
-        <v>15330</v>
+        <v>2441</v>
       </c>
       <c r="Q13">
-        <v>6067</v>
+        <v>6659</v>
       </c>
       <c r="R13">
-        <v>7324</v>
+        <v>4660</v>
       </c>
       <c r="S13">
-        <v>13406</v>
+        <v>5505</v>
       </c>
       <c r="T13">
-        <v>6717</v>
+        <v>15614</v>
       </c>
       <c r="U13">
-        <v>5268</v>
+        <v>10379</v>
       </c>
       <c r="V13">
-        <v>4746</v>
+        <v>10409</v>
       </c>
       <c r="W13">
-        <v>4868</v>
+        <v>27062</v>
       </c>
       <c r="X13">
-        <v>3827</v>
+        <v>27787</v>
       </c>
       <c r="Y13">
-        <v>2757</v>
+        <v>16763</v>
       </c>
       <c r="Z13">
-        <v>1338</v>
+        <v>35139</v>
       </c>
       <c r="AA13">
-        <v>812</v>
+        <v>32837</v>
       </c>
       <c r="AB13">
-        <v>1060</v>
+        <v>64082</v>
       </c>
       <c r="AC13">
-        <v>498</v>
+        <v>54520</v>
       </c>
       <c r="AD13">
-        <v>506</v>
+        <v>87133</v>
       </c>
       <c r="AE13">
-        <v>393</v>
+        <v>84527</v>
       </c>
       <c r="AF13">
-        <v>260</v>
+        <v>119881</v>
       </c>
       <c r="AG13">
-        <v>409</v>
+        <v>128139</v>
       </c>
       <c r="AH13">
-        <v>367</v>
+        <v>169274</v>
       </c>
       <c r="AI13">
-        <v>410</v>
+        <v>222610</v>
       </c>
       <c r="AJ13">
-        <v>434</v>
+        <v>226600</v>
       </c>
       <c r="AK13">
-        <v>431</v>
+        <v>240886</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.45">
@@ -6610,112 +6601,112 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>75514</v>
+        <v>655</v>
       </c>
       <c r="C14">
-        <v>76557</v>
+        <v>775</v>
       </c>
       <c r="D14">
-        <v>78085</v>
+        <v>846</v>
       </c>
       <c r="E14">
-        <v>63846</v>
+        <v>1149</v>
       </c>
       <c r="F14">
-        <v>61381</v>
+        <v>1015</v>
       </c>
       <c r="G14">
-        <v>52463</v>
+        <v>1048</v>
       </c>
       <c r="H14">
-        <v>44478</v>
+        <v>1464</v>
       </c>
       <c r="I14">
-        <v>37647</v>
+        <v>1299</v>
       </c>
       <c r="J14">
-        <v>35252</v>
+        <v>1241</v>
       </c>
       <c r="K14">
-        <v>17768</v>
+        <v>2589</v>
       </c>
       <c r="L14">
-        <v>17280</v>
+        <v>1418</v>
       </c>
       <c r="M14">
-        <v>17868</v>
+        <v>1746</v>
       </c>
       <c r="N14">
-        <v>12491</v>
+        <v>3935</v>
       </c>
       <c r="O14">
-        <v>11889</v>
+        <v>2194</v>
       </c>
       <c r="P14">
-        <v>14700</v>
+        <v>2471</v>
       </c>
       <c r="Q14">
-        <v>6183</v>
+        <v>6714</v>
       </c>
       <c r="R14">
-        <v>7394</v>
+        <v>4268</v>
       </c>
       <c r="S14">
-        <v>12372</v>
+        <v>5274</v>
       </c>
       <c r="T14">
-        <v>6420</v>
+        <v>15292</v>
       </c>
       <c r="U14">
-        <v>4996</v>
+        <v>10383</v>
       </c>
       <c r="V14">
-        <v>4493</v>
+        <v>10447</v>
       </c>
       <c r="W14">
-        <v>4724</v>
+        <v>27036</v>
       </c>
       <c r="X14">
-        <v>3405</v>
+        <v>27335</v>
       </c>
       <c r="Y14">
-        <v>2892</v>
+        <v>16884</v>
       </c>
       <c r="Z14">
-        <v>1170</v>
+        <v>34863</v>
       </c>
       <c r="AA14">
-        <v>825</v>
+        <v>31200</v>
       </c>
       <c r="AB14">
-        <v>944</v>
+        <v>62195</v>
       </c>
       <c r="AC14">
-        <v>599</v>
+        <v>53117</v>
       </c>
       <c r="AD14">
-        <v>451</v>
+        <v>87962</v>
       </c>
       <c r="AE14">
-        <v>376</v>
+        <v>84083</v>
       </c>
       <c r="AF14">
-        <v>339</v>
+        <v>119910</v>
       </c>
       <c r="AG14">
-        <v>332</v>
+        <v>126630</v>
       </c>
       <c r="AH14">
-        <v>364</v>
+        <v>166259</v>
       </c>
       <c r="AI14">
-        <v>406</v>
+        <v>222687</v>
       </c>
       <c r="AJ14">
-        <v>365</v>
+        <v>222092</v>
       </c>
       <c r="AK14">
-        <v>333</v>
+        <v>244176</v>
       </c>
     </row>
   </sheetData>
